--- a/TSA Model.xlsx
+++ b/TSA Model.xlsx
@@ -85,7 +85,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B82">
+    <comment authorId="0" ref="B79">
       <text>
         <t xml:space="preserve">To keep it simple, using annual interest, 10yr balloon repay
 	-Mark Rozeboom</t>
@@ -113,7 +113,7 @@
 	-David Harpur</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B63">
+    <comment authorId="0" ref="B61">
       <text>
         <t xml:space="preserve">Used Gross PP&amp;E
 	-Mark Rozeboom</t>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="175">
   <si>
     <t>TSA Overall</t>
   </si>
@@ -459,19 +459,10 @@
     <t>Total Property Value</t>
   </si>
   <si>
-    <t>Annual Facilities Expense Manual</t>
-  </si>
-  <si>
-    <t>**You can disregard, this is my manual reconcile assuming 10 yrs</t>
+    <t xml:space="preserve">Annual Facilities </t>
   </si>
   <si>
     <t>Facilities / Student</t>
-  </si>
-  <si>
-    <t>**Both of these ignore Depreciation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual Facilities </t>
   </si>
   <si>
     <t>EBITDA with Marketing</t>
@@ -1113,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1486,15 +1477,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1535,6 +1517,9 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="5" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="3" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1657,6 +1642,9 @@
     </xf>
     <xf borderId="1" fillId="16" fontId="9" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="9" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2749,47 +2737,47 @@
         <v>6</v>
       </c>
       <c r="C24" s="8">
-        <f>'Mid-Sized Schools'!C67</f>
+        <f>'Mid-Sized Schools'!C64</f>
         <v>-1621036</v>
       </c>
       <c r="D24" s="8">
-        <f>'Mid-Sized Schools'!D67</f>
+        <f>'Mid-Sized Schools'!D64</f>
         <v>-5415095</v>
       </c>
       <c r="E24" s="8">
-        <f>'Mid-Sized Schools'!E67</f>
+        <f>'Mid-Sized Schools'!E64</f>
         <v>8287895</v>
       </c>
       <c r="F24" s="8">
-        <f>'Mid-Sized Schools'!F67</f>
+        <f>'Mid-Sized Schools'!F64</f>
         <v>25822685</v>
       </c>
       <c r="G24" s="8">
-        <f>'Mid-Sized Schools'!G67</f>
+        <f>'Mid-Sized Schools'!G64</f>
         <v>89594050</v>
       </c>
       <c r="H24" s="8">
-        <f>'Mid-Sized Schools'!H67</f>
+        <f>'Mid-Sized Schools'!H64</f>
         <v>254418150</v>
       </c>
       <c r="I24" s="8">
-        <f>'Mid-Sized Schools'!I67</f>
+        <f>'Mid-Sized Schools'!I64</f>
         <v>515551400</v>
       </c>
       <c r="J24" s="8">
-        <f>'Mid-Sized Schools'!J67</f>
+        <f>'Mid-Sized Schools'!J64</f>
         <v>824120500</v>
       </c>
       <c r="K24" s="8">
-        <f>'Mid-Sized Schools'!K67</f>
+        <f>'Mid-Sized Schools'!K64</f>
         <v>1031102800</v>
       </c>
       <c r="L24" s="8">
-        <f>'Mid-Sized Schools'!L67</f>
+        <f>'Mid-Sized Schools'!L64</f>
         <v>1399074250</v>
       </c>
       <c r="M24" s="8">
-        <f>'Mid-Sized Schools'!M67</f>
+        <f>'Mid-Sized Schools'!M64</f>
         <v>2240090038</v>
       </c>
     </row>
@@ -2798,47 +2786,47 @@
         <v>7</v>
       </c>
       <c r="C25" s="24">
-        <f>'Flagship Schools'!C67</f>
+        <f>'Flagship Schools'!C64</f>
         <v>0</v>
       </c>
       <c r="D25" s="24">
-        <f>'Flagship Schools'!D67</f>
+        <f>'Flagship Schools'!D64</f>
         <v>0</v>
       </c>
       <c r="E25" s="24">
-        <f>'Flagship Schools'!E67</f>
+        <f>'Flagship Schools'!E64</f>
         <v>0</v>
       </c>
       <c r="F25" s="24">
-        <f>'Flagship Schools'!F67</f>
+        <f>'Flagship Schools'!F64</f>
         <v>-1600000</v>
       </c>
       <c r="G25" s="24">
-        <f>'Flagship Schools'!G67</f>
+        <f>'Flagship Schools'!G64</f>
         <v>-1600000</v>
       </c>
       <c r="H25" s="24">
-        <f>'Flagship Schools'!H67</f>
+        <f>'Flagship Schools'!H64</f>
         <v>11782412.5</v>
       </c>
       <c r="I25" s="24">
-        <f>'Flagship Schools'!I67</f>
+        <f>'Flagship Schools'!I64</f>
         <v>27218837.5</v>
       </c>
       <c r="J25" s="24">
-        <f>'Flagship Schools'!J67</f>
+        <f>'Flagship Schools'!J64</f>
         <v>55583662.5</v>
       </c>
       <c r="K25" s="24">
-        <f>'Flagship Schools'!K67</f>
+        <f>'Flagship Schools'!K64</f>
         <v>71020087.5</v>
       </c>
       <c r="L25" s="24">
-        <f>'Flagship Schools'!L67</f>
+        <f>'Flagship Schools'!L64</f>
         <v>99384912.5</v>
       </c>
       <c r="M25" s="24">
-        <f>'Flagship Schools'!M67</f>
+        <f>'Flagship Schools'!M64</f>
         <v>114821337.5</v>
       </c>
     </row>
@@ -2975,47 +2963,47 @@
         <v>15</v>
       </c>
       <c r="C30" s="8">
-        <f>'Virtual Schools'!C26+Microschools!C38+'Mid-Sized Schools'!C71+'Flagship Schools'!C71</f>
+        <f>'Virtual Schools'!C26+Microschools!C38+'Mid-Sized Schools'!C68+'Flagship Schools'!C68</f>
         <v>5131000</v>
       </c>
       <c r="D30" s="8">
-        <f>'Virtual Schools'!D26+Microschools!D38+'Mid-Sized Schools'!D71+'Flagship Schools'!D71</f>
+        <f>'Virtual Schools'!D26+Microschools!D38+'Mid-Sized Schools'!D68+'Flagship Schools'!D68</f>
         <v>8305500</v>
       </c>
       <c r="E30" s="8">
-        <f>'Virtual Schools'!E26+Microschools!E38+'Mid-Sized Schools'!E71+'Flagship Schools'!E71</f>
+        <f>'Virtual Schools'!E26+Microschools!E38+'Mid-Sized Schools'!E68+'Flagship Schools'!E68</f>
         <v>13697000</v>
       </c>
       <c r="F30" s="8">
-        <f>'Virtual Schools'!F26+Microschools!F38+'Mid-Sized Schools'!F71+'Flagship Schools'!F71</f>
+        <f>'Virtual Schools'!F26+Microschools!F38+'Mid-Sized Schools'!F68+'Flagship Schools'!F68</f>
         <v>22084000</v>
       </c>
       <c r="G30" s="8">
-        <f>'Virtual Schools'!G26+Microschools!G38+'Mid-Sized Schools'!G71+'Flagship Schools'!G71</f>
+        <f>'Virtual Schools'!G26+Microschools!G38+'Mid-Sized Schools'!G68+'Flagship Schools'!G68</f>
         <v>41241000</v>
       </c>
       <c r="H30" s="8">
-        <f>'Virtual Schools'!H26+Microschools!H38+'Mid-Sized Schools'!H71+'Flagship Schools'!H71</f>
+        <f>'Virtual Schools'!H26+Microschools!H38+'Mid-Sized Schools'!H68+'Flagship Schools'!H68</f>
         <v>76475000</v>
       </c>
       <c r="I30" s="8">
-        <f>'Virtual Schools'!I26+Microschools!I38+'Mid-Sized Schools'!I71+'Flagship Schools'!I71</f>
+        <f>'Virtual Schools'!I26+Microschools!I38+'Mid-Sized Schools'!I68+'Flagship Schools'!I68</f>
         <v>90464653.85</v>
       </c>
       <c r="J30" s="8">
-        <f>'Virtual Schools'!J26+Microschools!J38+'Mid-Sized Schools'!J71+'Flagship Schools'!J71</f>
+        <f>'Virtual Schools'!J26+Microschools!J38+'Mid-Sized Schools'!J68+'Flagship Schools'!J68</f>
         <v>102400615.4</v>
       </c>
       <c r="K30" s="8">
-        <f>'Virtual Schools'!K26+Microschools!K38+'Mid-Sized Schools'!K71+'Flagship Schools'!K71</f>
+        <f>'Virtual Schools'!K26+Microschools!K38+'Mid-Sized Schools'!K68+'Flagship Schools'!K68</f>
         <v>114924923.1</v>
       </c>
       <c r="L30" s="8">
-        <f>'Virtual Schools'!L26+Microschools!L38+'Mid-Sized Schools'!L71+'Flagship Schools'!L71</f>
+        <f>'Virtual Schools'!L26+Microschools!L38+'Mid-Sized Schools'!L68+'Flagship Schools'!L68</f>
         <v>151399384.6</v>
       </c>
       <c r="M30" s="8">
-        <f>'Virtual Schools'!M26+Microschools!M38+'Mid-Sized Schools'!M71+'Flagship Schools'!M71</f>
+        <f>'Virtual Schools'!M26+Microschools!M38+'Mid-Sized Schools'!M68+'Flagship Schools'!M68</f>
         <v>206914692.3</v>
       </c>
     </row>
@@ -3024,47 +3012,47 @@
         <v>16</v>
       </c>
       <c r="C31" s="8">
-        <f>'Virtual Schools'!C27+Microschools!C39+'Mid-Sized Schools'!C72+'Flagship Schools'!C72</f>
+        <f>'Virtual Schools'!C27+Microschools!C39+'Mid-Sized Schools'!C69+'Flagship Schools'!C69</f>
         <v>20652000</v>
       </c>
       <c r="D31" s="8">
-        <f>'Virtual Schools'!D27+Microschools!D39+'Mid-Sized Schools'!D72+'Flagship Schools'!D72</f>
+        <f>'Virtual Schools'!D27+Microschools!D39+'Mid-Sized Schools'!D69+'Flagship Schools'!D69</f>
         <v>33718500</v>
       </c>
       <c r="E31" s="8">
-        <f>'Virtual Schools'!E27+Microschools!E39+'Mid-Sized Schools'!E72+'Flagship Schools'!E72</f>
+        <f>'Virtual Schools'!E27+Microschools!E39+'Mid-Sized Schools'!E69+'Flagship Schools'!E69</f>
         <v>56273000</v>
       </c>
       <c r="F31" s="8">
-        <f>'Virtual Schools'!F27+Microschools!F39+'Mid-Sized Schools'!F72+'Flagship Schools'!F72</f>
+        <f>'Virtual Schools'!F27+Microschools!F39+'Mid-Sized Schools'!F69+'Flagship Schools'!F69</f>
         <v>92791000</v>
       </c>
       <c r="G31" s="8">
-        <f>'Virtual Schools'!G27+Microschools!G39+'Mid-Sized Schools'!G72+'Flagship Schools'!G72</f>
+        <f>'Virtual Schools'!G27+Microschools!G39+'Mid-Sized Schools'!G69+'Flagship Schools'!G69</f>
         <v>178329000</v>
       </c>
       <c r="H31" s="8">
-        <f>'Virtual Schools'!H27+Microschools!H39+'Mid-Sized Schools'!H72+'Flagship Schools'!H72</f>
+        <f>'Virtual Schools'!H27+Microschools!H39+'Mid-Sized Schools'!H69+'Flagship Schools'!H69</f>
         <v>338470000</v>
       </c>
       <c r="I31" s="8">
-        <f>'Virtual Schools'!I27+Microschools!I39+'Mid-Sized Schools'!I72+'Flagship Schools'!I72</f>
+        <f>'Virtual Schools'!I27+Microschools!I39+'Mid-Sized Schools'!I69+'Flagship Schools'!I69</f>
         <v>390294115.4</v>
       </c>
       <c r="J31" s="8">
-        <f>'Virtual Schools'!J27+Microschools!J39+'Mid-Sized Schools'!J72+'Flagship Schools'!J72</f>
+        <f>'Virtual Schools'!J27+Microschools!J39+'Mid-Sized Schools'!J69+'Flagship Schools'!J69</f>
         <v>433352461.5</v>
       </c>
       <c r="K31" s="8">
-        <f>'Virtual Schools'!K27+Microschools!K39+'Mid-Sized Schools'!K72+'Flagship Schools'!K72</f>
+        <f>'Virtual Schools'!K27+Microschools!K39+'Mid-Sized Schools'!K69+'Flagship Schools'!K69</f>
         <v>483449692.3</v>
       </c>
       <c r="L31" s="8">
-        <f>'Virtual Schools'!L27+Microschools!L39+'Mid-Sized Schools'!L72+'Flagship Schools'!L72</f>
+        <f>'Virtual Schools'!L27+Microschools!L39+'Mid-Sized Schools'!L69+'Flagship Schools'!L69</f>
         <v>629347538.5</v>
       </c>
       <c r="M31" s="8">
-        <f>'Virtual Schools'!M27+Microschools!M39+'Mid-Sized Schools'!M72+'Flagship Schools'!M72</f>
+        <f>'Virtual Schools'!M27+Microschools!M39+'Mid-Sized Schools'!M69+'Flagship Schools'!M69</f>
         <v>851408769.2</v>
       </c>
     </row>
@@ -3250,47 +3238,47 @@
         <v>6</v>
       </c>
       <c r="C37" s="8">
-        <f>'Mid-Sized Schools'!C75</f>
+        <f>'Mid-Sized Schools'!C72</f>
         <v>-1636036</v>
       </c>
       <c r="D37" s="8">
-        <f>'Mid-Sized Schools'!D75</f>
+        <f>'Mid-Sized Schools'!D72</f>
         <v>-7585095</v>
       </c>
       <c r="E37" s="8">
-        <f>'Mid-Sized Schools'!E75</f>
+        <f>'Mid-Sized Schools'!E72</f>
         <v>-4022105</v>
       </c>
       <c r="F37" s="8">
-        <f>'Mid-Sized Schools'!F75</f>
+        <f>'Mid-Sized Schools'!F72</f>
         <v>-1697315</v>
       </c>
       <c r="G37" s="8">
-        <f>'Mid-Sized Schools'!G75</f>
+        <f>'Mid-Sized Schools'!G72</f>
         <v>22714050</v>
       </c>
       <c r="H37" s="8">
-        <f>'Mid-Sized Schools'!H75</f>
+        <f>'Mid-Sized Schools'!H72</f>
         <v>121743150</v>
       </c>
       <c r="I37" s="8">
-        <f>'Mid-Sized Schools'!I75</f>
+        <f>'Mid-Sized Schools'!I72</f>
         <v>304771400</v>
       </c>
       <c r="J37" s="8">
-        <f>'Mid-Sized Schools'!J75</f>
+        <f>'Mid-Sized Schools'!J72</f>
         <v>545090500</v>
       </c>
       <c r="K37" s="8">
-        <f>'Mid-Sized Schools'!K75</f>
+        <f>'Mid-Sized Schools'!K72</f>
         <v>700062800</v>
       </c>
       <c r="L37" s="8">
-        <f>'Mid-Sized Schools'!L75</f>
+        <f>'Mid-Sized Schools'!L72</f>
         <v>900519250</v>
       </c>
       <c r="M37" s="8">
-        <f>'Mid-Sized Schools'!M75</f>
+        <f>'Mid-Sized Schools'!M72</f>
         <v>1449565038</v>
       </c>
     </row>
@@ -3299,47 +3287,47 @@
         <v>7</v>
       </c>
       <c r="C38" s="24">
-        <f>'Flagship Schools'!C75</f>
+        <f>'Flagship Schools'!C72</f>
         <v>0</v>
       </c>
       <c r="D38" s="24">
-        <f>'Flagship Schools'!D75</f>
+        <f>'Flagship Schools'!D72</f>
         <v>0</v>
       </c>
       <c r="E38" s="24">
-        <f>'Flagship Schools'!E75</f>
+        <f>'Flagship Schools'!E72</f>
         <v>0</v>
       </c>
       <c r="F38" s="24">
-        <f>'Flagship Schools'!F75</f>
+        <f>'Flagship Schools'!F72</f>
         <v>-1600000</v>
       </c>
       <c r="G38" s="24">
-        <f>'Flagship Schools'!G75</f>
+        <f>'Flagship Schools'!G72</f>
         <v>-1600000</v>
       </c>
       <c r="H38" s="24">
-        <f>'Flagship Schools'!H75</f>
+        <f>'Flagship Schools'!H72</f>
         <v>9307412.5</v>
       </c>
       <c r="I38" s="24">
-        <f>'Flagship Schools'!I75</f>
+        <f>'Flagship Schools'!I72</f>
         <v>24103068.27</v>
       </c>
       <c r="J38" s="24">
-        <f>'Flagship Schools'!J75</f>
+        <f>'Flagship Schools'!J72</f>
         <v>49485585.58</v>
       </c>
       <c r="K38" s="24">
-        <f>'Flagship Schools'!K75</f>
+        <f>'Flagship Schools'!K72</f>
         <v>66185472.12</v>
       </c>
       <c r="L38" s="24">
-        <f>'Flagship Schools'!L75</f>
+        <f>'Flagship Schools'!L72</f>
         <v>91567989.42</v>
       </c>
       <c r="M38" s="24">
-        <f>'Flagship Schools'!M75</f>
+        <f>'Flagship Schools'!M72</f>
         <v>108272876</v>
       </c>
     </row>
@@ -3574,47 +3562,47 @@
         <v>6</v>
       </c>
       <c r="C45" s="8">
-        <f>'Mid-Sized Schools'!C75-'Mid-Sized Schools'!C54</f>
+        <f>'Mid-Sized Schools'!C72-'Mid-Sized Schools'!C54</f>
         <v>-26636036</v>
       </c>
       <c r="D45" s="8">
-        <f>'Mid-Sized Schools'!D75-'Mid-Sized Schools'!D54</f>
+        <f>'Mid-Sized Schools'!D72-'Mid-Sized Schools'!D54</f>
         <v>-267585095</v>
       </c>
       <c r="E45" s="8">
-        <f>'Mid-Sized Schools'!E75-'Mid-Sized Schools'!E54</f>
+        <f>'Mid-Sized Schools'!E72-'Mid-Sized Schools'!E54</f>
         <v>-329022105</v>
       </c>
       <c r="F45" s="8">
-        <f>'Mid-Sized Schools'!F75-'Mid-Sized Schools'!F54</f>
+        <f>'Mid-Sized Schools'!F72-'Mid-Sized Schools'!F54</f>
         <v>-976697315</v>
       </c>
       <c r="G45" s="8">
-        <f>'Mid-Sized Schools'!G75-'Mid-Sized Schools'!G54</f>
+        <f>'Mid-Sized Schools'!G72-'Mid-Sized Schools'!G54</f>
         <v>-1602285950</v>
       </c>
       <c r="H45" s="8">
-        <f>'Mid-Sized Schools'!H75-'Mid-Sized Schools'!H54</f>
+        <f>'Mid-Sized Schools'!H72-'Mid-Sized Schools'!H54</f>
         <v>-1503256850</v>
       </c>
       <c r="I45" s="8">
-        <f>'Mid-Sized Schools'!I75-'Mid-Sized Schools'!I54</f>
+        <f>'Mid-Sized Schools'!I72-'Mid-Sized Schools'!I54</f>
         <v>-1320228600</v>
       </c>
       <c r="J45" s="8">
-        <f>'Mid-Sized Schools'!J75-'Mid-Sized Schools'!J54</f>
+        <f>'Mid-Sized Schools'!J72-'Mid-Sized Schools'!J54</f>
         <v>-1079909500</v>
       </c>
       <c r="K45" s="8">
-        <f>'Mid-Sized Schools'!K75-'Mid-Sized Schools'!K54</f>
+        <f>'Mid-Sized Schools'!K72-'Mid-Sized Schools'!K54</f>
         <v>-4174937200</v>
       </c>
       <c r="L45" s="8">
-        <f>'Mid-Sized Schools'!L75-'Mid-Sized Schools'!L54</f>
+        <f>'Mid-Sized Schools'!L72-'Mid-Sized Schools'!L54</f>
         <v>-6411980750</v>
       </c>
       <c r="M45" s="8">
-        <f>'Mid-Sized Schools'!M75-'Mid-Sized Schools'!M54</f>
+        <f>'Mid-Sized Schools'!M72-'Mid-Sized Schools'!M54</f>
         <v>-4237934963</v>
       </c>
     </row>
@@ -3623,47 +3611,47 @@
         <v>7</v>
       </c>
       <c r="C46" s="8">
-        <f>'Flagship Schools'!C75-'Flagship Schools'!C54</f>
+        <f>'Flagship Schools'!C72-'Flagship Schools'!C54</f>
         <v>0</v>
       </c>
       <c r="D46" s="8">
-        <f>'Flagship Schools'!D75-'Flagship Schools'!D54</f>
+        <f>'Flagship Schools'!D72-'Flagship Schools'!D54</f>
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <f>'Flagship Schools'!E75-'Flagship Schools'!E54</f>
+        <f>'Flagship Schools'!E72-'Flagship Schools'!E54</f>
         <v>0</v>
       </c>
       <c r="F46" s="8">
-        <f>'Flagship Schools'!F75-'Flagship Schools'!F54</f>
+        <f>'Flagship Schools'!F72-'Flagship Schools'!F54</f>
         <v>-76600000</v>
       </c>
       <c r="G46" s="8">
-        <f>'Flagship Schools'!G75-'Flagship Schools'!G54</f>
+        <f>'Flagship Schools'!G72-'Flagship Schools'!G54</f>
         <v>-1600000</v>
       </c>
       <c r="H46" s="8">
-        <f>'Flagship Schools'!H75-'Flagship Schools'!H54</f>
+        <f>'Flagship Schools'!H72-'Flagship Schools'!H54</f>
         <v>-65692587.5</v>
       </c>
       <c r="I46" s="8">
-        <f>'Flagship Schools'!I75-'Flagship Schools'!I54</f>
+        <f>'Flagship Schools'!I72-'Flagship Schools'!I54</f>
         <v>24103068.27</v>
       </c>
       <c r="J46" s="8">
-        <f>'Flagship Schools'!J75-'Flagship Schools'!J54</f>
+        <f>'Flagship Schools'!J72-'Flagship Schools'!J54</f>
         <v>-25514414.42</v>
       </c>
       <c r="K46" s="8">
-        <f>'Flagship Schools'!K75-'Flagship Schools'!K54</f>
+        <f>'Flagship Schools'!K72-'Flagship Schools'!K54</f>
         <v>66185472.12</v>
       </c>
       <c r="L46" s="8">
-        <f>'Flagship Schools'!L75-'Flagship Schools'!L54</f>
+        <f>'Flagship Schools'!L72-'Flagship Schools'!L54</f>
         <v>16567989.42</v>
       </c>
       <c r="M46" s="8">
-        <f>'Flagship Schools'!M75-'Flagship Schools'!M54</f>
+        <f>'Flagship Schools'!M72-'Flagship Schools'!M54</f>
         <v>108272876</v>
       </c>
     </row>
@@ -9964,121 +9952,116 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="112"/>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="164">
-        <f>(C57/10)</f>
-        <v>1100000</v>
-      </c>
-      <c r="D61" s="164">
-        <f t="shared" ref="D61:M61" si="24">(D57/10)+D52</f>
-        <v>29600000</v>
-      </c>
-      <c r="E61" s="164">
+      <c r="C61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*C3</f>
+        <v>2031736</v>
+      </c>
+      <c r="D61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*D3</f>
+        <v>10158680</v>
+      </c>
+      <c r="E61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*E3</f>
+        <v>20317360</v>
+      </c>
+      <c r="F61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*F3</f>
+        <v>50793400</v>
+      </c>
+      <c r="G61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*G3</f>
+        <v>101586800</v>
+      </c>
+      <c r="H61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*H3</f>
+        <v>152380200</v>
+      </c>
+      <c r="I61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*I3</f>
+        <v>203173600</v>
+      </c>
+      <c r="J61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*J3</f>
+        <v>253967000</v>
+      </c>
+      <c r="K61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*K3</f>
+        <v>406347200</v>
+      </c>
+      <c r="L61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*L3</f>
+        <v>634917500</v>
+      </c>
+      <c r="M61" s="155">
+        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*M3</f>
+        <v>812694400</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="155">
+        <f t="shared" ref="C62:M62" si="24">C61/C31</f>
+        <v>50793.4</v>
+      </c>
+      <c r="D62" s="155">
         <f t="shared" si="24"/>
-        <v>62100000</v>
-      </c>
-      <c r="F61" s="164">
+        <v>21988.48485</v>
+      </c>
+      <c r="E62" s="155">
         <f t="shared" si="24"/>
-        <v>159600000</v>
-      </c>
-      <c r="G61" s="164">
+        <v>7292.663317</v>
+      </c>
+      <c r="F62" s="155">
         <f t="shared" si="24"/>
-        <v>322100000</v>
-      </c>
-      <c r="H61" s="164">
+        <v>6806.941839</v>
+      </c>
+      <c r="G62" s="155">
         <f t="shared" si="24"/>
-        <v>484600000</v>
-      </c>
-      <c r="I61" s="164">
+        <v>5455.789474</v>
+      </c>
+      <c r="H62" s="155">
         <f t="shared" si="24"/>
-        <v>647100000</v>
-      </c>
-      <c r="J61" s="164">
+        <v>3846.042403</v>
+      </c>
+      <c r="I62" s="155">
         <f t="shared" si="24"/>
-        <v>809600000</v>
-      </c>
-      <c r="K61" s="164">
+        <v>2902.48</v>
+      </c>
+      <c r="J62" s="155">
         <f t="shared" si="24"/>
-        <v>1297100000</v>
-      </c>
-      <c r="L61" s="164">
+        <v>2418.733333</v>
+      </c>
+      <c r="K62" s="155">
         <f t="shared" si="24"/>
-        <v>2028350000</v>
-      </c>
-      <c r="M61" s="164">
+        <v>2902.48</v>
+      </c>
+      <c r="L62" s="155">
         <f t="shared" si="24"/>
-        <v>2597100000</v>
-      </c>
-      <c r="N61" s="165" t="s">
-        <v>112</v>
-      </c>
-      <c r="O61" s="112"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
-      <c r="R61" s="112"/>
-      <c r="S61" s="112"/>
-      <c r="T61" s="112"/>
-      <c r="U61" s="112"/>
-      <c r="V61" s="112"/>
-      <c r="W61" s="112"/>
-      <c r="X61" s="112"/>
-      <c r="Y61" s="112"/>
-      <c r="Z61" s="112"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="155">
-        <f t="shared" ref="C62:M62" si="25">C61/C31</f>
-        <v>27500</v>
-      </c>
-      <c r="D62" s="155">
-        <f t="shared" si="25"/>
-        <v>64069.26407</v>
-      </c>
-      <c r="E62" s="155">
-        <f t="shared" si="25"/>
-        <v>22290.02154</v>
-      </c>
-      <c r="F62" s="155">
-        <f t="shared" si="25"/>
-        <v>21388.36773</v>
-      </c>
-      <c r="G62" s="155">
-        <f t="shared" si="25"/>
-        <v>17298.60365</v>
-      </c>
-      <c r="H62" s="155">
-        <f t="shared" si="25"/>
-        <v>12231.19637</v>
-      </c>
-      <c r="I62" s="155">
-        <f t="shared" si="25"/>
-        <v>9244.285714</v>
-      </c>
-      <c r="J62" s="155">
-        <f t="shared" si="25"/>
-        <v>7710.47619</v>
-      </c>
-      <c r="K62" s="155">
-        <f t="shared" si="25"/>
-        <v>9265</v>
-      </c>
-      <c r="L62" s="155">
-        <f t="shared" si="25"/>
-        <v>10239.0207</v>
+        <v>3205.035336</v>
       </c>
       <c r="M62" s="155">
-        <f t="shared" si="25"/>
-        <v>8734.886067</v>
-      </c>
-      <c r="N62" s="20" t="s">
-        <v>114</v>
-      </c>
+        <f t="shared" si="24"/>
+        <v>2733.353737</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -10120,52 +10103,52 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="B64" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*C3</f>
-        <v>2031736</v>
-      </c>
-      <c r="D64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*D3</f>
-        <v>10158680</v>
-      </c>
-      <c r="E64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*E3</f>
-        <v>20317360</v>
-      </c>
-      <c r="F64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*F3</f>
-        <v>50793400</v>
-      </c>
-      <c r="G64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*G3</f>
-        <v>101586800</v>
-      </c>
-      <c r="H64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*H3</f>
-        <v>152380200</v>
-      </c>
-      <c r="I64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*I3</f>
-        <v>203173600</v>
-      </c>
-      <c r="J64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*J3</f>
-        <v>253967000</v>
-      </c>
-      <c r="K64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*K3</f>
-        <v>406347200</v>
-      </c>
-      <c r="L64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*L3</f>
-        <v>634917500</v>
-      </c>
-      <c r="M64" s="155">
-        <f>(('School Assumptions'!$B$36*'School Assumptions'!$B$46)+('School Assumptions'!$B$44*(1-'School Assumptions'!$B$46)))*M3</f>
-        <v>812694400</v>
+      <c r="B64" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="165">
+        <f t="shared" ref="C64:M64" si="25">C43-C61</f>
+        <v>-1621036</v>
+      </c>
+      <c r="D64" s="165">
+        <f t="shared" si="25"/>
+        <v>-5415095</v>
+      </c>
+      <c r="E64" s="165">
+        <f t="shared" si="25"/>
+        <v>8287895</v>
+      </c>
+      <c r="F64" s="165">
+        <f t="shared" si="25"/>
+        <v>25822685</v>
+      </c>
+      <c r="G64" s="165">
+        <f t="shared" si="25"/>
+        <v>89594050</v>
+      </c>
+      <c r="H64" s="165">
+        <f t="shared" si="25"/>
+        <v>254418150</v>
+      </c>
+      <c r="I64" s="165">
+        <f t="shared" si="25"/>
+        <v>515551400</v>
+      </c>
+      <c r="J64" s="165">
+        <f t="shared" si="25"/>
+        <v>824120500</v>
+      </c>
+      <c r="K64" s="165">
+        <f t="shared" si="25"/>
+        <v>1031102800</v>
+      </c>
+      <c r="L64" s="165">
+        <f t="shared" si="25"/>
+        <v>1399074250</v>
+      </c>
+      <c r="M64" s="165">
+        <f t="shared" si="25"/>
+        <v>2240090038</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10182,52 +10165,52 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="B65" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="155">
+      <c r="B65" s="166" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="167">
         <f t="shared" ref="C65:M65" si="26">C64/C31</f>
-        <v>50793.4</v>
-      </c>
-      <c r="D65" s="155">
+        <v>-40525.9</v>
+      </c>
+      <c r="D65" s="167">
         <f t="shared" si="26"/>
-        <v>21988.48485</v>
-      </c>
-      <c r="E65" s="155">
+        <v>-11720.98485</v>
+      </c>
+      <c r="E65" s="167">
         <f t="shared" si="26"/>
-        <v>7292.663317</v>
-      </c>
-      <c r="F65" s="155">
+        <v>2974.836683</v>
+      </c>
+      <c r="F65" s="167">
         <f t="shared" si="26"/>
-        <v>6806.941839</v>
-      </c>
-      <c r="G65" s="155">
+        <v>3460.558161</v>
+      </c>
+      <c r="G65" s="167">
         <f t="shared" si="26"/>
-        <v>5455.789474</v>
-      </c>
-      <c r="H65" s="155">
+        <v>4811.710526</v>
+      </c>
+      <c r="H65" s="167">
         <f t="shared" si="26"/>
-        <v>3846.042403</v>
-      </c>
-      <c r="I65" s="155">
+        <v>6421.457597</v>
+      </c>
+      <c r="I65" s="167">
         <f t="shared" si="26"/>
-        <v>2902.48</v>
-      </c>
-      <c r="J65" s="155">
+        <v>7365.02</v>
+      </c>
+      <c r="J65" s="167">
         <f t="shared" si="26"/>
-        <v>2418.733333</v>
-      </c>
-      <c r="K65" s="155">
+        <v>7848.766667</v>
+      </c>
+      <c r="K65" s="167">
         <f t="shared" si="26"/>
-        <v>2902.48</v>
-      </c>
-      <c r="L65" s="155">
+        <v>7365.02</v>
+      </c>
+      <c r="L65" s="167">
         <f t="shared" si="26"/>
-        <v>3205.035336</v>
-      </c>
-      <c r="M65" s="155">
+        <v>7062.464664</v>
+      </c>
+      <c r="M65" s="167">
         <f t="shared" si="26"/>
-        <v>2733.353737</v>
+        <v>7534.146263</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10271,53 +10254,20 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="B67" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="168">
-        <f t="shared" ref="C67:M67" si="27">C43-C64</f>
-        <v>-1621036</v>
-      </c>
-      <c r="D67" s="168">
-        <f t="shared" si="27"/>
-        <v>-5415095</v>
-      </c>
-      <c r="E67" s="168">
-        <f t="shared" si="27"/>
-        <v>8287895</v>
-      </c>
-      <c r="F67" s="168">
-        <f t="shared" si="27"/>
-        <v>25822685</v>
-      </c>
-      <c r="G67" s="168">
-        <f t="shared" si="27"/>
-        <v>89594050</v>
-      </c>
-      <c r="H67" s="168">
-        <f t="shared" si="27"/>
-        <v>254418150</v>
-      </c>
-      <c r="I67" s="168">
-        <f t="shared" si="27"/>
-        <v>515551400</v>
-      </c>
-      <c r="J67" s="168">
-        <f t="shared" si="27"/>
-        <v>824120500</v>
-      </c>
-      <c r="K67" s="168">
-        <f t="shared" si="27"/>
-        <v>1031102800</v>
-      </c>
-      <c r="L67" s="168">
-        <f t="shared" si="27"/>
-        <v>1399074250</v>
-      </c>
-      <c r="M67" s="168">
-        <f t="shared" si="27"/>
-        <v>2240090038</v>
-      </c>
+      <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -10333,52 +10283,52 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="B68" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="170">
-        <f t="shared" ref="C68:M68" si="28">C67/C31</f>
-        <v>-40525.9</v>
-      </c>
-      <c r="D68" s="170">
-        <f t="shared" si="28"/>
-        <v>-11720.98485</v>
-      </c>
-      <c r="E68" s="170">
-        <f t="shared" si="28"/>
-        <v>2974.836683</v>
-      </c>
-      <c r="F68" s="170">
-        <f t="shared" si="28"/>
-        <v>3460.558161</v>
-      </c>
-      <c r="G68" s="170">
-        <f t="shared" si="28"/>
-        <v>4811.710526</v>
-      </c>
-      <c r="H68" s="170">
-        <f t="shared" si="28"/>
-        <v>6421.457597</v>
-      </c>
-      <c r="I68" s="170">
-        <f t="shared" si="28"/>
-        <v>7365.02</v>
-      </c>
-      <c r="J68" s="170">
-        <f t="shared" si="28"/>
-        <v>7848.766667</v>
-      </c>
-      <c r="K68" s="170">
-        <f t="shared" si="28"/>
-        <v>7365.02</v>
-      </c>
-      <c r="L68" s="170">
-        <f t="shared" si="28"/>
-        <v>7062.464664</v>
-      </c>
-      <c r="M68" s="170">
-        <f t="shared" si="28"/>
-        <v>7534.146263</v>
+      <c r="B68" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="144">
+        <f>C30*'School Assumptions'!$B$58</f>
+        <v>3000</v>
+      </c>
+      <c r="D68" s="144">
+        <f>D30*'School Assumptions'!$B$58</f>
+        <v>434000</v>
+      </c>
+      <c r="E68" s="144">
+        <f>E30*'School Assumptions'!$B$58</f>
+        <v>2462000</v>
+      </c>
+      <c r="F68" s="144">
+        <f>F30*'School Assumptions'!$B$58</f>
+        <v>5504000</v>
+      </c>
+      <c r="G68" s="144">
+        <f>G30*'School Assumptions'!$B$58</f>
+        <v>13376000</v>
+      </c>
+      <c r="H68" s="144">
+        <f>H30*'School Assumptions'!$B$58</f>
+        <v>26535000</v>
+      </c>
+      <c r="I68" s="144">
+        <f>I30*'School Assumptions'!$B$58</f>
+        <v>42156000</v>
+      </c>
+      <c r="J68" s="144">
+        <f>J30*'School Assumptions'!$B$58</f>
+        <v>55806000</v>
+      </c>
+      <c r="K68" s="144">
+        <f>K30*'School Assumptions'!$B$58</f>
+        <v>66208000</v>
+      </c>
+      <c r="L68" s="144">
+        <f>L30*'School Assumptions'!$B$58</f>
+        <v>99711000</v>
+      </c>
+      <c r="M68" s="144">
+        <f>M30*'School Assumptions'!$B$58</f>
+        <v>158105000</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10395,18 +10345,53 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="B69" s="1"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="B69" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="144">
+        <f>C30*'School Assumptions'!$B$59</f>
+        <v>12000</v>
+      </c>
+      <c r="D69" s="144">
+        <f>D30*'School Assumptions'!$B$59</f>
+        <v>1736000</v>
+      </c>
+      <c r="E69" s="144">
+        <f>E30*'School Assumptions'!$B$59</f>
+        <v>9848000</v>
+      </c>
+      <c r="F69" s="144">
+        <f>F30*'School Assumptions'!$B$59</f>
+        <v>22016000</v>
+      </c>
+      <c r="G69" s="144">
+        <f>G30*'School Assumptions'!$B$59</f>
+        <v>53504000</v>
+      </c>
+      <c r="H69" s="144">
+        <f>H30*'School Assumptions'!$B$59</f>
+        <v>106140000</v>
+      </c>
+      <c r="I69" s="144">
+        <f>I30*'School Assumptions'!$B$59</f>
+        <v>168624000</v>
+      </c>
+      <c r="J69" s="144">
+        <f>J30*'School Assumptions'!$B$59</f>
+        <v>223224000</v>
+      </c>
+      <c r="K69" s="144">
+        <f>K30*'School Assumptions'!$B$59</f>
+        <v>264832000</v>
+      </c>
+      <c r="L69" s="144">
+        <f>L30*'School Assumptions'!$B$59</f>
+        <v>398844000</v>
+      </c>
+      <c r="M69" s="144">
+        <f>M30*'School Assumptions'!$B$59</f>
+        <v>632420000</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -10422,20 +10407,53 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="B70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+      <c r="B70" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="168">
+        <f t="shared" ref="C70:M70" si="27">C68+C69</f>
+        <v>15000</v>
+      </c>
+      <c r="D70" s="168">
+        <f t="shared" si="27"/>
+        <v>2170000</v>
+      </c>
+      <c r="E70" s="168">
+        <f t="shared" si="27"/>
+        <v>12310000</v>
+      </c>
+      <c r="F70" s="168">
+        <f t="shared" si="27"/>
+        <v>27520000</v>
+      </c>
+      <c r="G70" s="168">
+        <f t="shared" si="27"/>
+        <v>66880000</v>
+      </c>
+      <c r="H70" s="168">
+        <f t="shared" si="27"/>
+        <v>132675000</v>
+      </c>
+      <c r="I70" s="168">
+        <f t="shared" si="27"/>
+        <v>210780000</v>
+      </c>
+      <c r="J70" s="168">
+        <f t="shared" si="27"/>
+        <v>279030000</v>
+      </c>
+      <c r="K70" s="168">
+        <f t="shared" si="27"/>
+        <v>331040000</v>
+      </c>
+      <c r="L70" s="168">
+        <f t="shared" si="27"/>
+        <v>498555000</v>
+      </c>
+      <c r="M70" s="168">
+        <f t="shared" si="27"/>
+        <v>790525000</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -10451,53 +10469,18 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="B71" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="144">
-        <f>C30*'School Assumptions'!$B$58</f>
-        <v>3000</v>
-      </c>
-      <c r="D71" s="144">
-        <f>D30*'School Assumptions'!$B$58</f>
-        <v>434000</v>
-      </c>
-      <c r="E71" s="144">
-        <f>E30*'School Assumptions'!$B$58</f>
-        <v>2462000</v>
-      </c>
-      <c r="F71" s="144">
-        <f>F30*'School Assumptions'!$B$58</f>
-        <v>5504000</v>
-      </c>
-      <c r="G71" s="144">
-        <f>G30*'School Assumptions'!$B$58</f>
-        <v>13376000</v>
-      </c>
-      <c r="H71" s="144">
-        <f>H30*'School Assumptions'!$B$58</f>
-        <v>26535000</v>
-      </c>
-      <c r="I71" s="144">
-        <f>I30*'School Assumptions'!$B$58</f>
-        <v>42156000</v>
-      </c>
-      <c r="J71" s="144">
-        <f>J30*'School Assumptions'!$B$58</f>
-        <v>55806000</v>
-      </c>
-      <c r="K71" s="144">
-        <f>K30*'School Assumptions'!$B$58</f>
-        <v>66208000</v>
-      </c>
-      <c r="L71" s="144">
-        <f>L30*'School Assumptions'!$B$58</f>
-        <v>99711000</v>
-      </c>
-      <c r="M71" s="144">
-        <f>M30*'School Assumptions'!$B$58</f>
-        <v>158105000</v>
-      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -10513,52 +10496,52 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="B72" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="144">
-        <f>C30*'School Assumptions'!$B$59</f>
-        <v>12000</v>
-      </c>
-      <c r="D72" s="144">
-        <f>D30*'School Assumptions'!$B$59</f>
-        <v>1736000</v>
-      </c>
-      <c r="E72" s="144">
-        <f>E30*'School Assumptions'!$B$59</f>
-        <v>9848000</v>
-      </c>
-      <c r="F72" s="144">
-        <f>F30*'School Assumptions'!$B$59</f>
-        <v>22016000</v>
-      </c>
-      <c r="G72" s="144">
-        <f>G30*'School Assumptions'!$B$59</f>
-        <v>53504000</v>
-      </c>
-      <c r="H72" s="144">
-        <f>H30*'School Assumptions'!$B$59</f>
-        <v>106140000</v>
-      </c>
-      <c r="I72" s="144">
-        <f>I30*'School Assumptions'!$B$59</f>
-        <v>168624000</v>
-      </c>
-      <c r="J72" s="144">
-        <f>J30*'School Assumptions'!$B$59</f>
-        <v>223224000</v>
-      </c>
-      <c r="K72" s="144">
-        <f>K30*'School Assumptions'!$B$59</f>
-        <v>264832000</v>
-      </c>
-      <c r="L72" s="144">
-        <f>L30*'School Assumptions'!$B$59</f>
-        <v>398844000</v>
-      </c>
-      <c r="M72" s="144">
-        <f>M30*'School Assumptions'!$B$59</f>
-        <v>632420000</v>
+      <c r="B72" s="164" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="169">
+        <f t="shared" ref="C72:M72" si="28">C64-C70</f>
+        <v>-1636036</v>
+      </c>
+      <c r="D72" s="169">
+        <f t="shared" si="28"/>
+        <v>-7585095</v>
+      </c>
+      <c r="E72" s="169">
+        <f t="shared" si="28"/>
+        <v>-4022105</v>
+      </c>
+      <c r="F72" s="169">
+        <f t="shared" si="28"/>
+        <v>-1697315</v>
+      </c>
+      <c r="G72" s="169">
+        <f t="shared" si="28"/>
+        <v>22714050</v>
+      </c>
+      <c r="H72" s="169">
+        <f t="shared" si="28"/>
+        <v>121743150</v>
+      </c>
+      <c r="I72" s="169">
+        <f t="shared" si="28"/>
+        <v>304771400</v>
+      </c>
+      <c r="J72" s="169">
+        <f t="shared" si="28"/>
+        <v>545090500</v>
+      </c>
+      <c r="K72" s="169">
+        <f t="shared" si="28"/>
+        <v>700062800</v>
+      </c>
+      <c r="L72" s="169">
+        <f t="shared" si="28"/>
+        <v>900519250</v>
+      </c>
+      <c r="M72" s="169">
+        <f t="shared" si="28"/>
+        <v>1449565038</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10575,52 +10558,52 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="B73" s="160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="171">
-        <f t="shared" ref="C73:M73" si="29">C71+C72</f>
-        <v>15000</v>
-      </c>
-      <c r="D73" s="171">
+      <c r="B73" s="164" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="169">
+        <f t="shared" ref="C73:M73" si="29">C72-C52</f>
+        <v>-4136036</v>
+      </c>
+      <c r="D73" s="169">
         <f t="shared" si="29"/>
-        <v>2170000</v>
-      </c>
-      <c r="E73" s="171">
+        <v>-31685095</v>
+      </c>
+      <c r="E73" s="169">
         <f t="shared" si="29"/>
-        <v>12310000</v>
-      </c>
-      <c r="F73" s="171">
+        <v>-55122105</v>
+      </c>
+      <c r="F73" s="169">
         <f t="shared" si="29"/>
-        <v>27520000</v>
-      </c>
-      <c r="G73" s="171">
+        <v>-133797315</v>
+      </c>
+      <c r="G73" s="169">
         <f t="shared" si="29"/>
-        <v>66880000</v>
-      </c>
-      <c r="H73" s="171">
+        <v>-244385950</v>
+      </c>
+      <c r="H73" s="169">
         <f t="shared" si="29"/>
-        <v>132675000</v>
-      </c>
-      <c r="I73" s="171">
+        <v>-280356850</v>
+      </c>
+      <c r="I73" s="169">
         <f t="shared" si="29"/>
-        <v>210780000</v>
-      </c>
-      <c r="J73" s="171">
+        <v>-232328600</v>
+      </c>
+      <c r="J73" s="169">
         <f t="shared" si="29"/>
-        <v>279030000</v>
-      </c>
-      <c r="K73" s="171">
+        <v>-127009500</v>
+      </c>
+      <c r="K73" s="169">
         <f t="shared" si="29"/>
-        <v>331040000</v>
-      </c>
-      <c r="L73" s="171">
+        <v>-377037200</v>
+      </c>
+      <c r="L73" s="169">
         <f t="shared" si="29"/>
-        <v>498555000</v>
-      </c>
-      <c r="M73" s="171">
+        <v>-784080750</v>
+      </c>
+      <c r="M73" s="169">
         <f t="shared" si="29"/>
-        <v>790525000</v>
+        <v>-707534962.5</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10637,8 +10620,8 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="B74" s="20"/>
-      <c r="C74" s="151"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -10664,52 +10647,52 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="B75" s="167" t="s">
-        <v>116</v>
-      </c>
-      <c r="C75" s="172">
-        <f t="shared" ref="C75:M75" si="30">C67-C73</f>
-        <v>-1636036</v>
-      </c>
-      <c r="D75" s="172">
+      <c r="B75" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="171">
+        <f t="shared" ref="C75:M75" si="30">C72-C54</f>
+        <v>-26636036</v>
+      </c>
+      <c r="D75" s="171">
         <f t="shared" si="30"/>
-        <v>-7585095</v>
-      </c>
-      <c r="E75" s="172">
+        <v>-267585095</v>
+      </c>
+      <c r="E75" s="171">
         <f t="shared" si="30"/>
-        <v>-4022105</v>
-      </c>
-      <c r="F75" s="172">
+        <v>-329022105</v>
+      </c>
+      <c r="F75" s="171">
         <f t="shared" si="30"/>
-        <v>-1697315</v>
-      </c>
-      <c r="G75" s="172">
+        <v>-976697315</v>
+      </c>
+      <c r="G75" s="171">
         <f t="shared" si="30"/>
-        <v>22714050</v>
-      </c>
-      <c r="H75" s="172">
+        <v>-1602285950</v>
+      </c>
+      <c r="H75" s="171">
         <f t="shared" si="30"/>
-        <v>121743150</v>
-      </c>
-      <c r="I75" s="172">
+        <v>-1503256850</v>
+      </c>
+      <c r="I75" s="171">
         <f t="shared" si="30"/>
-        <v>304771400</v>
-      </c>
-      <c r="J75" s="172">
+        <v>-1320228600</v>
+      </c>
+      <c r="J75" s="171">
         <f t="shared" si="30"/>
-        <v>545090500</v>
-      </c>
-      <c r="K75" s="172">
+        <v>-1079909500</v>
+      </c>
+      <c r="K75" s="171">
         <f t="shared" si="30"/>
-        <v>700062800</v>
-      </c>
-      <c r="L75" s="172">
+        <v>-4174937200</v>
+      </c>
+      <c r="L75" s="171">
         <f t="shared" si="30"/>
-        <v>900519250</v>
-      </c>
-      <c r="M75" s="172">
+        <v>-6411980750</v>
+      </c>
+      <c r="M75" s="171">
         <f t="shared" si="30"/>
-        <v>1449565038</v>
+        <v>-4237934963</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10726,53 +10709,18 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="B76" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="172">
-        <f t="shared" ref="C76:M76" si="31">C75-C52</f>
-        <v>-4136036</v>
-      </c>
-      <c r="D76" s="172">
-        <f t="shared" si="31"/>
-        <v>-31685095</v>
-      </c>
-      <c r="E76" s="172">
-        <f t="shared" si="31"/>
-        <v>-55122105</v>
-      </c>
-      <c r="F76" s="172">
-        <f t="shared" si="31"/>
-        <v>-133797315</v>
-      </c>
-      <c r="G76" s="172">
-        <f t="shared" si="31"/>
-        <v>-244385950</v>
-      </c>
-      <c r="H76" s="172">
-        <f t="shared" si="31"/>
-        <v>-280356850</v>
-      </c>
-      <c r="I76" s="172">
-        <f t="shared" si="31"/>
-        <v>-232328600</v>
-      </c>
-      <c r="J76" s="172">
-        <f t="shared" si="31"/>
-        <v>-127009500</v>
-      </c>
-      <c r="K76" s="172">
-        <f t="shared" si="31"/>
-        <v>-377037200</v>
-      </c>
-      <c r="L76" s="172">
-        <f t="shared" si="31"/>
-        <v>-784080750</v>
-      </c>
-      <c r="M76" s="172">
-        <f t="shared" si="31"/>
-        <v>-707534962.5</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -10788,18 +10736,20 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="B77" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -10815,52 +10765,22 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="B78" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="174">
-        <f t="shared" ref="C78:M78" si="32">C75-C54</f>
-        <v>-26636036</v>
-      </c>
-      <c r="D78" s="174">
-        <f t="shared" si="32"/>
-        <v>-267585095</v>
-      </c>
-      <c r="E78" s="174">
-        <f t="shared" si="32"/>
-        <v>-329022105</v>
-      </c>
-      <c r="F78" s="174">
-        <f t="shared" si="32"/>
-        <v>-976697315</v>
-      </c>
-      <c r="G78" s="174">
-        <f t="shared" si="32"/>
-        <v>-1602285950</v>
-      </c>
-      <c r="H78" s="174">
-        <f t="shared" si="32"/>
-        <v>-1503256850</v>
-      </c>
-      <c r="I78" s="174">
-        <f t="shared" si="32"/>
-        <v>-1320228600</v>
-      </c>
-      <c r="J78" s="174">
-        <f t="shared" si="32"/>
-        <v>-1079909500</v>
-      </c>
-      <c r="K78" s="174">
-        <f t="shared" si="32"/>
-        <v>-4174937200</v>
-      </c>
-      <c r="L78" s="174">
-        <f t="shared" si="32"/>
-        <v>-6411980750</v>
-      </c>
-      <c r="M78" s="174">
-        <f t="shared" si="32"/>
-        <v>-4237934963</v>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="155">
+        <f>M59</f>
+        <v>21121100000</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10877,7 +10797,9 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -10888,55 +10810,68 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
+      <c r="M79" s="155">
+        <f>(M72*17.5)+M78</f>
+        <v>46488488156</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
+      <c r="B80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="155">
+        <f t="shared" ref="C80:L80" si="31">C72-C54</f>
+        <v>-26636036</v>
+      </c>
+      <c r="D80" s="155">
+        <f t="shared" si="31"/>
+        <v>-267585095</v>
+      </c>
+      <c r="E80" s="155">
+        <f t="shared" si="31"/>
+        <v>-329022105</v>
+      </c>
+      <c r="F80" s="155">
+        <f t="shared" si="31"/>
+        <v>-976697315</v>
+      </c>
+      <c r="G80" s="155">
+        <f t="shared" si="31"/>
+        <v>-1602285950</v>
+      </c>
+      <c r="H80" s="155">
+        <f t="shared" si="31"/>
+        <v>-1503256850</v>
+      </c>
+      <c r="I80" s="155">
+        <f t="shared" si="31"/>
+        <v>-1320228600</v>
+      </c>
+      <c r="J80" s="155">
+        <f t="shared" si="31"/>
+        <v>-1079909500</v>
+      </c>
+      <c r="K80" s="155">
+        <f t="shared" si="31"/>
+        <v>-4174937200</v>
+      </c>
+      <c r="L80" s="155">
+        <f t="shared" si="31"/>
+        <v>-6411980750</v>
+      </c>
+      <c r="M80" s="155">
+        <f>M79</f>
+        <v>46488488156</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C81" s="172">
+        <f>IRR(C80:M80)</f>
+        <v>0.2976727965</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -10946,110 +10881,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="155">
-        <f>M59</f>
-        <v>21121100000</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="155">
-        <f>(M75*17.5)+M81</f>
-        <v>46488488156</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="155">
-        <f t="shared" ref="C83:L83" si="33">C75-C54</f>
-        <v>-26636036</v>
-      </c>
-      <c r="D83" s="155">
-        <f t="shared" si="33"/>
-        <v>-267585095</v>
-      </c>
-      <c r="E83" s="155">
-        <f t="shared" si="33"/>
-        <v>-329022105</v>
-      </c>
-      <c r="F83" s="155">
-        <f t="shared" si="33"/>
-        <v>-976697315</v>
-      </c>
-      <c r="G83" s="155">
-        <f t="shared" si="33"/>
-        <v>-1602285950</v>
-      </c>
-      <c r="H83" s="155">
-        <f t="shared" si="33"/>
-        <v>-1503256850</v>
-      </c>
-      <c r="I83" s="155">
-        <f t="shared" si="33"/>
-        <v>-1320228600</v>
-      </c>
-      <c r="J83" s="155">
-        <f t="shared" si="33"/>
-        <v>-1079909500</v>
-      </c>
-      <c r="K83" s="155">
-        <f t="shared" si="33"/>
-        <v>-4174937200</v>
-      </c>
-      <c r="L83" s="155">
-        <f t="shared" si="33"/>
-        <v>-6411980750</v>
-      </c>
-      <c r="M83" s="155">
-        <f>M82</f>
-        <v>46488488156</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="175">
-        <f>IRR(C83:M83)</f>
-        <v>0.2976727965</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="M81" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -11073,7 +10905,7 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -11539,7 +11371,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="176" t="s">
+      <c r="B14" s="173" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="105">
@@ -11588,50 +11420,50 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="170">
+      <c r="C15" s="167">
         <f t="shared" ref="C15:M15" si="2">C9-C14</f>
         <v>31006</v>
       </c>
-      <c r="D15" s="170">
+      <c r="D15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="E15" s="170">
+      <c r="E15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="F15" s="170">
+      <c r="F15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="G15" s="170">
+      <c r="G15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="H15" s="170">
+      <c r="H15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="I15" s="170">
+      <c r="I15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="J15" s="170">
+      <c r="J15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="K15" s="170">
+      <c r="K15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="L15" s="170">
+      <c r="L15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
-      <c r="M15" s="170">
+      <c r="M15" s="167">
         <f t="shared" si="2"/>
         <v>31006</v>
       </c>
@@ -11640,47 +11472,47 @@
       <c r="B16" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="177">
+      <c r="C16" s="174">
         <f t="shared" ref="C16:M16" si="3">C15/C9</f>
         <v>0.62012</v>
       </c>
-      <c r="D16" s="177">
+      <c r="D16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="E16" s="177">
+      <c r="E16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="F16" s="177">
+      <c r="F16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="G16" s="177">
+      <c r="G16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="H16" s="177">
+      <c r="H16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="I16" s="177">
+      <c r="I16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="J16" s="177">
+      <c r="J16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="K16" s="177">
+      <c r="K16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="L16" s="177">
+      <c r="L16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
-      <c r="M16" s="177">
+      <c r="M16" s="174">
         <f t="shared" si="3"/>
         <v>0.62012</v>
       </c>
@@ -11952,7 +11784,7 @@
     </row>
     <row r="24">
       <c r="B24" s="52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="65"/>
@@ -11979,50 +11811,50 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25" s="176">
         <f t="shared" ref="C25:M25" si="10">C3</f>
         <v>0</v>
       </c>
-      <c r="D25" s="180">
+      <c r="D25" s="177">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E25" s="180">
+      <c r="E25" s="177">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F25" s="180">
+      <c r="F25" s="177">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="G25" s="180">
+      <c r="G25" s="177">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H25" s="180">
+      <c r="H25" s="177">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="I25" s="180">
+      <c r="I25" s="177">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="J25" s="180">
+      <c r="J25" s="177">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="K25" s="180">
+      <c r="K25" s="177">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="L25" s="180">
+      <c r="L25" s="177">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="M25" s="180">
+      <c r="M25" s="177">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -12159,43 +11991,43 @@
         <v>58</v>
       </c>
       <c r="C30" s="66"/>
-      <c r="D30" s="181">
+      <c r="D30" s="178">
         <f>ROUND(-C32/'School Assumptions'!$B$78,0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="181">
+      <c r="E30" s="178">
         <f>-D32/'School Assumptions'!$B$78</f>
         <v>0</v>
       </c>
-      <c r="F30" s="181">
+      <c r="F30" s="178">
         <f>-E32/'School Assumptions'!$B$78</f>
         <v>0</v>
       </c>
-      <c r="G30" s="181">
+      <c r="G30" s="178">
         <f>-F32/'School Assumptions'!$B$78</f>
         <v>0</v>
       </c>
-      <c r="H30" s="181">
+      <c r="H30" s="178">
         <f>-G32/'School Assumptions'!$B$78</f>
         <v>0</v>
       </c>
-      <c r="I30" s="181">
+      <c r="I30" s="178">
         <f>-H32/'School Assumptions'!$B$78</f>
         <v>-76.15384615</v>
       </c>
-      <c r="J30" s="181">
+      <c r="J30" s="178">
         <f>-I32/'School Assumptions'!$B$78</f>
         <v>-154.6153846</v>
       </c>
-      <c r="K30" s="181">
+      <c r="K30" s="178">
         <f>-J32/'School Assumptions'!$B$78</f>
         <v>-306.9230769</v>
       </c>
-      <c r="L30" s="181">
+      <c r="L30" s="178">
         <f>-K32/'School Assumptions'!$B$78</f>
         <v>-385.3846154</v>
       </c>
-      <c r="M30" s="181">
+      <c r="M30" s="178">
         <f>-L32/'School Assumptions'!$B$78</f>
         <v>-537.6923077</v>
       </c>
@@ -12250,50 +12082,50 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="182" t="s">
+      <c r="B32" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="183">
+      <c r="C32" s="180">
         <f>('School Assumptions'!$B$72*C20*C4)+('School Assumptions'!$B$73*C21*C4)+('School Assumptions'!$B$74*C22*C4)+('School Assumptions'!$B$75*C23*C4)+('School Assumptions'!$B$76*C24*C4)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="183">
+      <c r="D32" s="180">
         <f>('School Assumptions'!$B$72*D20*D4)+('School Assumptions'!$B$73*D21*D4)+('School Assumptions'!$B$74*D22*D4)+('School Assumptions'!$B$75*D23*D4)+('School Assumptions'!$B$76*D24*D4)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="183">
+      <c r="E32" s="180">
         <f>('School Assumptions'!$B$72*E20*E4)+('School Assumptions'!$B$73*E21*E4)+('School Assumptions'!$B$74*E22*E4)+('School Assumptions'!$B$75*E23*E4)+('School Assumptions'!$B$76*E24*E4)</f>
         <v>0</v>
       </c>
-      <c r="F32" s="183">
+      <c r="F32" s="180">
         <f>('School Assumptions'!$B$72*F20*F4)+('School Assumptions'!$B$73*F21*F4)+('School Assumptions'!$B$74*F22*F4)+('School Assumptions'!$B$75*F23*F4)+('School Assumptions'!$B$76*F24*F4)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="183">
+      <c r="G32" s="180">
         <f>('School Assumptions'!$B$72*G20*G4)+('School Assumptions'!$B$73*G21*G4)+('School Assumptions'!$B$74*G22*G4)+('School Assumptions'!$B$75*G23*G4)+('School Assumptions'!$B$76*G24*G4)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="183">
+      <c r="H32" s="180">
         <f>('School Assumptions'!$B$72*H20*H4)+('School Assumptions'!$B$73*H21*H4)+('School Assumptions'!$B$74*H22*H4)+('School Assumptions'!$B$75*H23*H4)+('School Assumptions'!$B$76*H24*H4)</f>
         <v>495</v>
       </c>
-      <c r="I32" s="183">
+      <c r="I32" s="180">
         <f>('School Assumptions'!$B$72*I20*I4)+('School Assumptions'!$B$73*I21*I4)+('School Assumptions'!$B$74*I22*I4)+('School Assumptions'!$B$75*I23*I4)+('School Assumptions'!$B$76*I24*I4)</f>
         <v>1005</v>
       </c>
-      <c r="J32" s="183">
+      <c r="J32" s="180">
         <f>('School Assumptions'!$B$72*J20*J4)+('School Assumptions'!$B$73*J21*J4)+('School Assumptions'!$B$74*J22*J4)+('School Assumptions'!$B$75*J23*J4)+('School Assumptions'!$B$76*J24*J4)</f>
         <v>1995</v>
       </c>
-      <c r="K32" s="183">
+      <c r="K32" s="180">
         <f>('School Assumptions'!$B$72*K20*K4)+('School Assumptions'!$B$73*K21*K4)+('School Assumptions'!$B$74*K22*K4)+('School Assumptions'!$B$75*K23*K4)+('School Assumptions'!$B$76*K24*K4)</f>
         <v>2505</v>
       </c>
-      <c r="L32" s="183">
+      <c r="L32" s="180">
         <f>('School Assumptions'!$B$72*L20*L4)+('School Assumptions'!$B$73*L21*L4)+('School Assumptions'!$B$74*L22*L4)+('School Assumptions'!$B$75*L23*L4)+('School Assumptions'!$B$76*L24*L4)</f>
         <v>3495</v>
       </c>
-      <c r="M32" s="183">
+      <c r="M32" s="180">
         <f>('School Assumptions'!$B$72*M20*M4)+('School Assumptions'!$B$73*M21*M4)+('School Assumptions'!$B$74*M22*M4)+('School Assumptions'!$B$75*M23*M4)+('School Assumptions'!$B$76*M24*M4)</f>
         <v>4005</v>
       </c>
@@ -13275,50 +13107,50 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="B54" s="184" t="s">
+      <c r="B54" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="185">
+      <c r="C54" s="182">
         <f t="shared" ref="C54:M54" si="21">C47+C48</f>
         <v>0</v>
       </c>
-      <c r="D54" s="185">
+      <c r="D54" s="182">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E54" s="185">
+      <c r="E54" s="182">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F54" s="185">
+      <c r="F54" s="182">
         <f t="shared" si="21"/>
         <v>75000000</v>
       </c>
-      <c r="G54" s="185">
+      <c r="G54" s="182">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H54" s="185">
+      <c r="H54" s="182">
         <f t="shared" si="21"/>
         <v>75000000</v>
       </c>
-      <c r="I54" s="185">
+      <c r="I54" s="182">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J54" s="185">
+      <c r="J54" s="182">
         <f t="shared" si="21"/>
         <v>75000000</v>
       </c>
-      <c r="K54" s="185">
+      <c r="K54" s="182">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L54" s="185">
+      <c r="L54" s="182">
         <f t="shared" si="21"/>
         <v>75000000</v>
       </c>
-      <c r="M54" s="185">
+      <c r="M54" s="182">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -13519,47 +13351,47 @@
       <c r="B59" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="186">
+      <c r="C59" s="183">
         <f t="shared" ref="C59:M59" si="24">C58+C57</f>
         <v>0</v>
       </c>
-      <c r="D59" s="186">
+      <c r="D59" s="183">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="E59" s="186">
+      <c r="E59" s="183">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="F59" s="186">
+      <c r="F59" s="183">
         <f t="shared" si="24"/>
         <v>75000000</v>
       </c>
-      <c r="G59" s="186">
+      <c r="G59" s="183">
         <f t="shared" si="24"/>
         <v>69000000</v>
       </c>
-      <c r="H59" s="186">
+      <c r="H59" s="183">
         <f t="shared" si="24"/>
         <v>138000000</v>
       </c>
-      <c r="I59" s="186">
+      <c r="I59" s="183">
         <f t="shared" si="24"/>
         <v>126000000</v>
       </c>
-      <c r="J59" s="186">
+      <c r="J59" s="183">
         <f t="shared" si="24"/>
         <v>189000000</v>
       </c>
-      <c r="K59" s="186">
+      <c r="K59" s="183">
         <f t="shared" si="24"/>
         <v>171000000</v>
       </c>
-      <c r="L59" s="186">
+      <c r="L59" s="183">
         <f t="shared" si="24"/>
         <v>228000000</v>
       </c>
-      <c r="M59" s="186">
+      <c r="M59" s="183">
         <f t="shared" si="24"/>
         <v>204000000</v>
       </c>
@@ -13605,114 +13437,114 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="B61" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C61" s="164">
-        <f t="shared" ref="C61:M61" si="25">(C57/10)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="164">
+      <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="155">
+        <f>'School Assumptions'!$B$69*C25</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="155">
+        <f>'School Assumptions'!$B$69*D25</f>
+        <v>0</v>
+      </c>
+      <c r="E61" s="155">
+        <f>'School Assumptions'!$B$69*E25</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="155">
+        <f>'School Assumptions'!$B$69*F25</f>
+        <v>1600000</v>
+      </c>
+      <c r="G61" s="155">
+        <f>'School Assumptions'!$B$69*G25</f>
+        <v>1600000</v>
+      </c>
+      <c r="H61" s="155">
+        <f>'School Assumptions'!$B$69*H25</f>
+        <v>3200000</v>
+      </c>
+      <c r="I61" s="155">
+        <f>'School Assumptions'!$B$69*I25</f>
+        <v>3200000</v>
+      </c>
+      <c r="J61" s="155">
+        <f>'School Assumptions'!$B$69*J25</f>
+        <v>4800000</v>
+      </c>
+      <c r="K61" s="155">
+        <f>'School Assumptions'!$B$69*K25</f>
+        <v>4800000</v>
+      </c>
+      <c r="L61" s="155">
+        <f>'School Assumptions'!$B$69*L25</f>
+        <v>6400000</v>
+      </c>
+      <c r="M61" s="155">
+        <f>'School Assumptions'!$B$69*M25</f>
+        <v>6400000</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="184" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="155">
+        <f t="shared" ref="C62:M62" si="25">IFERROR(C61/C32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="155">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E61" s="164">
+      <c r="E62" s="155">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F61" s="164">
+      <c r="F62" s="155">
         <f t="shared" si="25"/>
-        <v>1500000</v>
-      </c>
-      <c r="G61" s="164">
+        <v>0</v>
+      </c>
+      <c r="G62" s="155">
         <f t="shared" si="25"/>
-        <v>1500000</v>
-      </c>
-      <c r="H61" s="164">
+        <v>0</v>
+      </c>
+      <c r="H62" s="155">
         <f t="shared" si="25"/>
-        <v>3000000</v>
-      </c>
-      <c r="I61" s="164">
+        <v>6464.646465</v>
+      </c>
+      <c r="I62" s="155">
         <f t="shared" si="25"/>
-        <v>3000000</v>
-      </c>
-      <c r="J61" s="164">
+        <v>3184.079602</v>
+      </c>
+      <c r="J62" s="155">
         <f t="shared" si="25"/>
-        <v>4500000</v>
-      </c>
-      <c r="K61" s="164">
+        <v>2406.015038</v>
+      </c>
+      <c r="K62" s="155">
         <f t="shared" si="25"/>
-        <v>4500000</v>
-      </c>
-      <c r="L61" s="164">
+        <v>1916.167665</v>
+      </c>
+      <c r="L62" s="155">
         <f t="shared" si="25"/>
-        <v>6000000</v>
-      </c>
-      <c r="M61" s="164">
+        <v>1831.187411</v>
+      </c>
+      <c r="M62" s="155">
         <f t="shared" si="25"/>
-        <v>6000000</v>
-      </c>
-      <c r="N61" s="112"/>
-      <c r="O61" s="112"/>
-      <c r="P61" s="112"/>
-      <c r="Q61" s="112"/>
-      <c r="R61" s="112"/>
-      <c r="S61" s="112"/>
-      <c r="T61" s="112"/>
-      <c r="U61" s="112"/>
-      <c r="V61" s="112"/>
-      <c r="W61" s="112"/>
-      <c r="X61" s="112"/>
-      <c r="Y61" s="112"/>
-      <c r="Z61" s="112"/>
-    </row>
-    <row r="62">
-      <c r="B62" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="155">
-        <f t="shared" ref="C62:M62" si="26">IFERROR(C61/C32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D62" s="155">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="155">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="155">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="155">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="155">
-        <f t="shared" si="26"/>
-        <v>6060.606061</v>
-      </c>
-      <c r="I62" s="155">
-        <f t="shared" si="26"/>
-        <v>2985.074627</v>
-      </c>
-      <c r="J62" s="155">
-        <f t="shared" si="26"/>
-        <v>2255.639098</v>
-      </c>
-      <c r="K62" s="155">
-        <f t="shared" si="26"/>
-        <v>1796.407186</v>
-      </c>
-      <c r="L62" s="155">
-        <f t="shared" si="26"/>
-        <v>1716.738197</v>
-      </c>
-      <c r="M62" s="155">
-        <f t="shared" si="26"/>
-        <v>1498.127341</v>
+        <v>1598.002497</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -13756,52 +13588,52 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="B64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" s="155">
-        <f>'School Assumptions'!$B$69*C25</f>
-        <v>0</v>
-      </c>
-      <c r="D64" s="155">
-        <f>'School Assumptions'!$B$69*D25</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="155">
-        <f>'School Assumptions'!$B$69*E25</f>
-        <v>0</v>
-      </c>
-      <c r="F64" s="155">
-        <f>'School Assumptions'!$B$69*F25</f>
-        <v>1600000</v>
-      </c>
-      <c r="G64" s="155">
-        <f>'School Assumptions'!$B$69*G25</f>
-        <v>1600000</v>
-      </c>
-      <c r="H64" s="155">
-        <f>'School Assumptions'!$B$69*H25</f>
-        <v>3200000</v>
-      </c>
-      <c r="I64" s="155">
-        <f>'School Assumptions'!$B$69*I25</f>
-        <v>3200000</v>
-      </c>
-      <c r="J64" s="155">
-        <f>'School Assumptions'!$B$69*J25</f>
-        <v>4800000</v>
-      </c>
-      <c r="K64" s="155">
-        <f>'School Assumptions'!$B$69*K25</f>
-        <v>4800000</v>
-      </c>
-      <c r="L64" s="155">
-        <f>'School Assumptions'!$B$69*L25</f>
-        <v>6400000</v>
-      </c>
-      <c r="M64" s="155">
-        <f>'School Assumptions'!$B$69*M25</f>
-        <v>6400000</v>
+      <c r="B64" s="164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="165">
+        <f t="shared" ref="C64:M64" si="26">C44-C61</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="165">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="165">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="165">
+        <f t="shared" si="26"/>
+        <v>-1600000</v>
+      </c>
+      <c r="G64" s="165">
+        <f t="shared" si="26"/>
+        <v>-1600000</v>
+      </c>
+      <c r="H64" s="165">
+        <f t="shared" si="26"/>
+        <v>11782412.5</v>
+      </c>
+      <c r="I64" s="165">
+        <f t="shared" si="26"/>
+        <v>27218837.5</v>
+      </c>
+      <c r="J64" s="165">
+        <f t="shared" si="26"/>
+        <v>55583662.5</v>
+      </c>
+      <c r="K64" s="165">
+        <f t="shared" si="26"/>
+        <v>71020087.5</v>
+      </c>
+      <c r="L64" s="165">
+        <f t="shared" si="26"/>
+        <v>99384912.5</v>
+      </c>
+      <c r="M64" s="165">
+        <f t="shared" si="26"/>
+        <v>114821337.5</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -13818,52 +13650,55 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
+      <c r="A65" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="B65" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="155">
+        <v>85</v>
+      </c>
+      <c r="C65" s="167">
         <f t="shared" ref="C65:M65" si="27">IFERROR(C64/C32,0)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="155">
+      <c r="D65" s="167">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E65" s="155">
+      <c r="E65" s="167">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="F65" s="155">
+      <c r="F65" s="167">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="G65" s="155">
+      <c r="G65" s="167">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H65" s="155">
+      <c r="H65" s="167">
         <f t="shared" si="27"/>
-        <v>6464.646465</v>
-      </c>
-      <c r="I65" s="155">
+        <v>23802.85354</v>
+      </c>
+      <c r="I65" s="167">
         <f t="shared" si="27"/>
-        <v>3184.079602</v>
-      </c>
-      <c r="J65" s="155">
+        <v>27083.4204</v>
+      </c>
+      <c r="J65" s="167">
         <f t="shared" si="27"/>
-        <v>2406.015038</v>
-      </c>
-      <c r="K65" s="155">
+        <v>27861.48496</v>
+      </c>
+      <c r="K65" s="167">
         <f t="shared" si="27"/>
-        <v>1916.167665</v>
-      </c>
-      <c r="L65" s="155">
+        <v>28351.33234</v>
+      </c>
+      <c r="L65" s="167">
         <f t="shared" si="27"/>
-        <v>1831.187411</v>
-      </c>
-      <c r="M65" s="155">
+        <v>28436.31259</v>
+      </c>
+      <c r="M65" s="167">
         <f t="shared" si="27"/>
-        <v>1598.002497</v>
+        <v>28669.4975</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -13880,18 +13715,6 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="B66" s="1"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -13907,53 +13730,20 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="B67" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="168">
-        <f t="shared" ref="C67:M67" si="28">C44-C64</f>
-        <v>0</v>
-      </c>
-      <c r="D67" s="168">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="168">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="168">
-        <f t="shared" si="28"/>
-        <v>-1600000</v>
-      </c>
-      <c r="G67" s="168">
-        <f t="shared" si="28"/>
-        <v>-1600000</v>
-      </c>
-      <c r="H67" s="168">
-        <f t="shared" si="28"/>
-        <v>11782412.5</v>
-      </c>
-      <c r="I67" s="168">
-        <f t="shared" si="28"/>
-        <v>27218837.5</v>
-      </c>
-      <c r="J67" s="168">
-        <f t="shared" si="28"/>
-        <v>55583662.5</v>
-      </c>
-      <c r="K67" s="168">
-        <f t="shared" si="28"/>
-        <v>71020087.5</v>
-      </c>
-      <c r="L67" s="168">
-        <f t="shared" si="28"/>
-        <v>99384912.5</v>
-      </c>
-      <c r="M67" s="168">
-        <f t="shared" si="28"/>
-        <v>114821337.5</v>
-      </c>
+      <c r="B67" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -13969,55 +13759,52 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="C68" s="170">
-        <f t="shared" ref="C68:M68" si="29">IFERROR(C67/C32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D68" s="170">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="170">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="F68" s="170">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="170">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="170">
-        <f t="shared" si="29"/>
-        <v>23802.85354</v>
-      </c>
-      <c r="I68" s="170">
-        <f t="shared" si="29"/>
-        <v>27083.4204</v>
-      </c>
-      <c r="J68" s="170">
-        <f t="shared" si="29"/>
-        <v>27861.48496</v>
-      </c>
-      <c r="K68" s="170">
-        <f t="shared" si="29"/>
-        <v>28351.33234</v>
-      </c>
-      <c r="L68" s="170">
-        <f t="shared" si="29"/>
-        <v>28436.31259</v>
-      </c>
-      <c r="M68" s="170">
-        <f t="shared" si="29"/>
-        <v>28669.4975</v>
+      <c r="B68" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="144">
+        <f>C31*'School Assumptions'!$B$58</f>
+        <v>0</v>
+      </c>
+      <c r="D68" s="144">
+        <f>D31*'School Assumptions'!$B$58</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="144">
+        <f>E31*'School Assumptions'!$B$58</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="144">
+        <f>F31*'School Assumptions'!$B$58</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="144">
+        <f>G31*'School Assumptions'!$B$58</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="144">
+        <f>H31*'School Assumptions'!$B$58</f>
+        <v>495000</v>
+      </c>
+      <c r="I68" s="144">
+        <f>I31*'School Assumptions'!$B$58</f>
+        <v>623153.8462</v>
+      </c>
+      <c r="J68" s="144">
+        <f>J31*'School Assumptions'!$B$58</f>
+        <v>1219615.385</v>
+      </c>
+      <c r="K68" s="144">
+        <f>K31*'School Assumptions'!$B$58</f>
+        <v>966923.0769</v>
+      </c>
+      <c r="L68" s="144">
+        <f>L31*'School Assumptions'!$B$58</f>
+        <v>1563384.615</v>
+      </c>
+      <c r="M68" s="144">
+        <f>M31*'School Assumptions'!$B$58</f>
+        <v>1309692.308</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -14034,6 +13821,53 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
+      <c r="B69" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="144">
+        <f>C31*'School Assumptions'!$B$59</f>
+        <v>0</v>
+      </c>
+      <c r="D69" s="144">
+        <f>D31*'School Assumptions'!$B$59</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="144">
+        <f>E31*'School Assumptions'!$B$59</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="144">
+        <f>F31*'School Assumptions'!$B$59</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="144">
+        <f>G31*'School Assumptions'!$B$59</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="144">
+        <f>H31*'School Assumptions'!$B$59</f>
+        <v>1980000</v>
+      </c>
+      <c r="I69" s="144">
+        <f>I31*'School Assumptions'!$B$59</f>
+        <v>2492615.385</v>
+      </c>
+      <c r="J69" s="144">
+        <f>J31*'School Assumptions'!$B$59</f>
+        <v>4878461.538</v>
+      </c>
+      <c r="K69" s="144">
+        <f>K31*'School Assumptions'!$B$59</f>
+        <v>3867692.308</v>
+      </c>
+      <c r="L69" s="144">
+        <f>L31*'School Assumptions'!$B$59</f>
+        <v>6253538.462</v>
+      </c>
+      <c r="M69" s="144">
+        <f>M31*'School Assumptions'!$B$59</f>
+        <v>5238769.231</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -14049,20 +13883,53 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="B70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
+      <c r="B70" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="168">
+        <f t="shared" ref="C70:M70" si="28">C68+C69</f>
+        <v>0</v>
+      </c>
+      <c r="D70" s="168">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="168">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="168">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="168">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="168">
+        <f t="shared" si="28"/>
+        <v>2475000</v>
+      </c>
+      <c r="I70" s="168">
+        <f t="shared" si="28"/>
+        <v>3115769.231</v>
+      </c>
+      <c r="J70" s="168">
+        <f t="shared" si="28"/>
+        <v>6098076.923</v>
+      </c>
+      <c r="K70" s="168">
+        <f t="shared" si="28"/>
+        <v>4834615.385</v>
+      </c>
+      <c r="L70" s="168">
+        <f t="shared" si="28"/>
+        <v>7816923.077</v>
+      </c>
+      <c r="M70" s="168">
+        <f t="shared" si="28"/>
+        <v>6548461.538</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -14078,53 +13945,18 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="B71" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" s="144">
-        <f>C31*'School Assumptions'!$B$58</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="144">
-        <f>D31*'School Assumptions'!$B$58</f>
-        <v>0</v>
-      </c>
-      <c r="E71" s="144">
-        <f>E31*'School Assumptions'!$B$58</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="144">
-        <f>F31*'School Assumptions'!$B$58</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="144">
-        <f>G31*'School Assumptions'!$B$58</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="144">
-        <f>H31*'School Assumptions'!$B$58</f>
-        <v>495000</v>
-      </c>
-      <c r="I71" s="144">
-        <f>I31*'School Assumptions'!$B$58</f>
-        <v>623153.8462</v>
-      </c>
-      <c r="J71" s="144">
-        <f>J31*'School Assumptions'!$B$58</f>
-        <v>1219615.385</v>
-      </c>
-      <c r="K71" s="144">
-        <f>K31*'School Assumptions'!$B$58</f>
-        <v>966923.0769</v>
-      </c>
-      <c r="L71" s="144">
-        <f>L31*'School Assumptions'!$B$58</f>
-        <v>1563384.615</v>
-      </c>
-      <c r="M71" s="144">
-        <f>M31*'School Assumptions'!$B$58</f>
-        <v>1309692.308</v>
-      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="151"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -14140,52 +13972,52 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="B72" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="144">
-        <f>C31*'School Assumptions'!$B$59</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="144">
-        <f>D31*'School Assumptions'!$B$59</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="144">
-        <f>E31*'School Assumptions'!$B$59</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="144">
-        <f>F31*'School Assumptions'!$B$59</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="144">
-        <f>G31*'School Assumptions'!$B$59</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="144">
-        <f>H31*'School Assumptions'!$B$59</f>
-        <v>1980000</v>
-      </c>
-      <c r="I72" s="144">
-        <f>I31*'School Assumptions'!$B$59</f>
-        <v>2492615.385</v>
-      </c>
-      <c r="J72" s="144">
-        <f>J31*'School Assumptions'!$B$59</f>
-        <v>4878461.538</v>
-      </c>
-      <c r="K72" s="144">
-        <f>K31*'School Assumptions'!$B$59</f>
-        <v>3867692.308</v>
-      </c>
-      <c r="L72" s="144">
-        <f>L31*'School Assumptions'!$B$59</f>
-        <v>6253538.462</v>
-      </c>
-      <c r="M72" s="144">
-        <f>M31*'School Assumptions'!$B$59</f>
-        <v>5238769.231</v>
+      <c r="B72" s="164" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="165">
+        <f t="shared" ref="C72:M72" si="29">C64-C70</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="165">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="165">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="165">
+        <f t="shared" si="29"/>
+        <v>-1600000</v>
+      </c>
+      <c r="G72" s="165">
+        <f t="shared" si="29"/>
+        <v>-1600000</v>
+      </c>
+      <c r="H72" s="165">
+        <f t="shared" si="29"/>
+        <v>9307412.5</v>
+      </c>
+      <c r="I72" s="165">
+        <f t="shared" si="29"/>
+        <v>24103068.27</v>
+      </c>
+      <c r="J72" s="165">
+        <f t="shared" si="29"/>
+        <v>49485585.58</v>
+      </c>
+      <c r="K72" s="165">
+        <f t="shared" si="29"/>
+        <v>66185472.12</v>
+      </c>
+      <c r="L72" s="165">
+        <f t="shared" si="29"/>
+        <v>91567989.42</v>
+      </c>
+      <c r="M72" s="165">
+        <f t="shared" si="29"/>
+        <v>108272876</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -14202,52 +14034,52 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="B73" s="160" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="171">
-        <f t="shared" ref="C73:M73" si="30">C71+C72</f>
-        <v>0</v>
-      </c>
-      <c r="D73" s="171">
+      <c r="B73" s="164" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="165">
+        <f t="shared" ref="C73:M73" si="30">C72-C52</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="165">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E73" s="171">
+      <c r="E73" s="165">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="F73" s="171">
+      <c r="F73" s="165">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="171">
+        <v>-7600000</v>
+      </c>
+      <c r="G73" s="165">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="171">
+        <v>-7600000</v>
+      </c>
+      <c r="H73" s="165">
         <f t="shared" si="30"/>
-        <v>2475000</v>
-      </c>
-      <c r="I73" s="171">
+        <v>-2692587.5</v>
+      </c>
+      <c r="I73" s="165">
         <f t="shared" si="30"/>
-        <v>3115769.231</v>
-      </c>
-      <c r="J73" s="171">
+        <v>12103068.27</v>
+      </c>
+      <c r="J73" s="165">
         <f t="shared" si="30"/>
-        <v>6098076.923</v>
-      </c>
-      <c r="K73" s="171">
+        <v>31485585.58</v>
+      </c>
+      <c r="K73" s="165">
         <f t="shared" si="30"/>
-        <v>4834615.385</v>
-      </c>
-      <c r="L73" s="171">
+        <v>48185472.12</v>
+      </c>
+      <c r="L73" s="165">
         <f t="shared" si="30"/>
-        <v>7816923.077</v>
-      </c>
-      <c r="M73" s="171">
+        <v>67567989.42</v>
+      </c>
+      <c r="M73" s="165">
         <f t="shared" si="30"/>
-        <v>6548461.538</v>
+        <v>84272875.96</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -14264,8 +14096,8 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="B74" s="20"/>
-      <c r="C74" s="151"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -14291,50 +14123,50 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="B75" s="167" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="168">
-        <f t="shared" ref="C75:M75" si="31">C67-C73</f>
-        <v>0</v>
-      </c>
-      <c r="D75" s="168">
+      <c r="B75" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75" s="171">
+        <f t="shared" ref="C75:M75" si="31">C72-C54</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="171">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="E75" s="168">
+      <c r="E75" s="171">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="F75" s="168">
+      <c r="F75" s="171">
+        <f t="shared" si="31"/>
+        <v>-76600000</v>
+      </c>
+      <c r="G75" s="171">
         <f t="shared" si="31"/>
         <v>-1600000</v>
       </c>
-      <c r="G75" s="168">
+      <c r="H75" s="171">
         <f t="shared" si="31"/>
-        <v>-1600000</v>
-      </c>
-      <c r="H75" s="168">
-        <f t="shared" si="31"/>
-        <v>9307412.5</v>
-      </c>
-      <c r="I75" s="168">
+        <v>-65692587.5</v>
+      </c>
+      <c r="I75" s="171">
         <f t="shared" si="31"/>
         <v>24103068.27</v>
       </c>
-      <c r="J75" s="168">
+      <c r="J75" s="171">
         <f t="shared" si="31"/>
-        <v>49485585.58</v>
-      </c>
-      <c r="K75" s="168">
+        <v>-25514414.42</v>
+      </c>
+      <c r="K75" s="171">
         <f t="shared" si="31"/>
         <v>66185472.12</v>
       </c>
-      <c r="L75" s="168">
+      <c r="L75" s="171">
         <f t="shared" si="31"/>
-        <v>91567989.42</v>
-      </c>
-      <c r="M75" s="168">
+        <v>16567989.42</v>
+      </c>
+      <c r="M75" s="171">
         <f t="shared" si="31"/>
         <v>108272876</v>
       </c>
@@ -14353,53 +14185,18 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="B76" s="167" t="s">
-        <v>117</v>
-      </c>
-      <c r="C76" s="168">
-        <f t="shared" ref="C76:M76" si="32">C75-C52</f>
-        <v>0</v>
-      </c>
-      <c r="D76" s="168">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="168">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="168">
-        <f t="shared" si="32"/>
-        <v>-7600000</v>
-      </c>
-      <c r="G76" s="168">
-        <f t="shared" si="32"/>
-        <v>-7600000</v>
-      </c>
-      <c r="H76" s="168">
-        <f t="shared" si="32"/>
-        <v>-2692587.5</v>
-      </c>
-      <c r="I76" s="168">
-        <f t="shared" si="32"/>
-        <v>12103068.27</v>
-      </c>
-      <c r="J76" s="168">
-        <f t="shared" si="32"/>
-        <v>31485585.58</v>
-      </c>
-      <c r="K76" s="168">
-        <f t="shared" si="32"/>
-        <v>48185472.12</v>
-      </c>
-      <c r="L76" s="168">
-        <f t="shared" si="32"/>
-        <v>67567989.42</v>
-      </c>
-      <c r="M76" s="168">
-        <f t="shared" si="32"/>
-        <v>84272875.96</v>
-      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -14415,18 +14212,20 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="B77" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -14442,52 +14241,22 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="B78" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="174">
-        <f t="shared" ref="C78:M78" si="33">C75-C54</f>
-        <v>0</v>
-      </c>
-      <c r="D78" s="174">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="174">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="174">
-        <f t="shared" si="33"/>
-        <v>-76600000</v>
-      </c>
-      <c r="G78" s="174">
-        <f t="shared" si="33"/>
-        <v>-1600000</v>
-      </c>
-      <c r="H78" s="174">
-        <f t="shared" si="33"/>
-        <v>-65692587.5</v>
-      </c>
-      <c r="I78" s="174">
-        <f t="shared" si="33"/>
-        <v>24103068.27</v>
-      </c>
-      <c r="J78" s="174">
-        <f t="shared" si="33"/>
-        <v>-25514414.42</v>
-      </c>
-      <c r="K78" s="174">
-        <f t="shared" si="33"/>
-        <v>66185472.12</v>
-      </c>
-      <c r="L78" s="174">
-        <f t="shared" si="33"/>
-        <v>16567989.42</v>
-      </c>
-      <c r="M78" s="174">
-        <f t="shared" si="33"/>
-        <v>108272876</v>
+      <c r="B78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="155">
+        <f>M59</f>
+        <v>204000000</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -14504,7 +14273,9 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="B79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -14515,55 +14286,68 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
+      <c r="M79" s="155">
+        <f>(M64*17.5)+M78</f>
+        <v>2213373406</v>
+      </c>
     </row>
     <row r="80">
-      <c r="B80" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
+      <c r="B80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="155">
+        <f t="shared" ref="C80:L80" si="32">C72-C54</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="155">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="155">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="155">
+        <f t="shared" si="32"/>
+        <v>-76600000</v>
+      </c>
+      <c r="G80" s="155">
+        <f t="shared" si="32"/>
+        <v>-1600000</v>
+      </c>
+      <c r="H80" s="155">
+        <f t="shared" si="32"/>
+        <v>-65692587.5</v>
+      </c>
+      <c r="I80" s="155">
+        <f t="shared" si="32"/>
+        <v>24103068.27</v>
+      </c>
+      <c r="J80" s="155">
+        <f t="shared" si="32"/>
+        <v>-25514414.42</v>
+      </c>
+      <c r="K80" s="155">
+        <f t="shared" si="32"/>
+        <v>66185472.12</v>
+      </c>
+      <c r="L80" s="155">
+        <f t="shared" si="32"/>
+        <v>16567989.42</v>
+      </c>
+      <c r="M80" s="155">
+        <f>M79</f>
+        <v>2213373406</v>
+      </c>
     </row>
     <row r="81">
       <c r="B81" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C81" s="172">
+        <f>IRR(C80:M80)</f>
+        <v>0.5698539468</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -14573,110 +14357,7 @@
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
-      <c r="M81" s="155">
-        <f>M59</f>
-        <v>204000000</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="155">
-        <f>(M67*17.5)+M81</f>
-        <v>2213373406</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="155">
-        <f t="shared" ref="C83:L83" si="34">C75-C54</f>
-        <v>0</v>
-      </c>
-      <c r="D83" s="155">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="155">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="155">
-        <f t="shared" si="34"/>
-        <v>-76600000</v>
-      </c>
-      <c r="G83" s="155">
-        <f t="shared" si="34"/>
-        <v>-1600000</v>
-      </c>
-      <c r="H83" s="155">
-        <f t="shared" si="34"/>
-        <v>-65692587.5</v>
-      </c>
-      <c r="I83" s="155">
-        <f t="shared" si="34"/>
-        <v>24103068.27</v>
-      </c>
-      <c r="J83" s="155">
-        <f t="shared" si="34"/>
-        <v>-25514414.42</v>
-      </c>
-      <c r="K83" s="155">
-        <f t="shared" si="34"/>
-        <v>66185472.12</v>
-      </c>
-      <c r="L83" s="155">
-        <f t="shared" si="34"/>
-        <v>16567989.42</v>
-      </c>
-      <c r="M83" s="155">
-        <f>M82</f>
-        <v>2213373406</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C84" s="175">
-        <f>IRR(C83:M83)</f>
-        <v>0.5698539468</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="M81" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -14699,369 +14380,369 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="185" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="186"/>
     </row>
     <row r="2">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="190">
+      <c r="B2" s="188">
         <v>10474.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="191"/>
-      <c r="B3" s="192"/>
+      <c r="A3" s="189"/>
+      <c r="B3" s="190"/>
     </row>
     <row r="4">
-      <c r="A4" s="191" t="s">
+      <c r="A4" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="192"/>
+      <c r="B4" s="190"/>
     </row>
     <row r="5">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="190">
+      <c r="B5" s="188">
         <v>500.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="190">
+      <c r="B6" s="188">
         <v>2000.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="189"/>
-      <c r="B7" s="193"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="191"/>
     </row>
     <row r="8">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="194">
+      <c r="B8" s="192">
         <v>2.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="193" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="196">
+      <c r="B9" s="194">
         <v>0.075</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="197"/>
-      <c r="B10" s="197"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="195"/>
     </row>
     <row r="11">
-      <c r="A11" s="197"/>
-      <c r="B11" s="197"/>
+      <c r="A11" s="195"/>
+      <c r="B11" s="195"/>
     </row>
     <row r="12">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="185" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="188"/>
+      <c r="B12" s="186"/>
     </row>
     <row r="13">
-      <c r="A13" s="189" t="s">
+      <c r="A13" s="187" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="196">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="188">
+        <v>15000.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="189"/>
+      <c r="B15" s="190"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="190"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="187" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="188">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="187" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="188">
+        <v>2500.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="187"/>
+      <c r="B19" s="191"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="189" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="192"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="191">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="198">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="189" t="s">
+      <c r="B22" s="191">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="187"/>
+      <c r="B23" s="192"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="192">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="193" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="194">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="197"/>
+      <c r="B26" s="197"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="199"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="189" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="196"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="187" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="196">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="188">
+        <v>1000000.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="188">
+        <v>1.4E7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="187" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="200">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
+      <c r="A33" s="187" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="191">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
+      <c r="A34" s="187" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="201">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="202" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="190">
-        <v>15000.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="191"/>
-      <c r="B15" s="192"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="191" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="192"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="189" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="190">
-        <v>500.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="189" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="190">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="189"/>
-      <c r="B19" s="193"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="191" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="194"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="189" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="193">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="189" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="193">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="189"/>
-      <c r="B23" s="194"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="189" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="194">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="195" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="196">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="199"/>
-      <c r="B26" s="199"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="201"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="191" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="198"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="189" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="198">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="189" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="190">
-        <v>1000000.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="189" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="190">
-        <v>1.4E7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="189" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="202">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="33" hidden="1">
-      <c r="A33" s="189" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="193">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
-      <c r="A34" s="189" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="203">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="204" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="190">
+      <c r="B35" s="188">
         <v>25000.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="189" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="190">
+      <c r="A36" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="188">
         <f>(815868+915868)/2</f>
         <v>865868</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="191"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="189"/>
+      <c r="B37" s="190"/>
     </row>
     <row r="38">
-      <c r="A38" s="191" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="192"/>
+      <c r="A38" s="189" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="190"/>
     </row>
     <row r="39">
-      <c r="A39" s="189" t="s">
+      <c r="A39" s="187" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="196">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="188">
+        <v>1.0E7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="188">
+        <v>4.0E7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="187" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="200">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="202" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="188">
+        <v>25000.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="188">
+        <v>1165868.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="187"/>
+      <c r="B45" s="188"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="187" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="191">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="187"/>
+      <c r="B47" s="188"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="189" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" s="188"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" s="191">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="187" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="198">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="189" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="190">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="189" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="190">
-        <v>4.0E7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="189" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="202">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="204" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="190">
-        <v>25000.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="189" t="s">
-        <v>124</v>
-      </c>
-      <c r="B44" s="190">
-        <v>1165868.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="189"/>
-      <c r="B45" s="190"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="189" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="193">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="189"/>
-      <c r="B47" s="190"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="191" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="190"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="189" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="193">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="189" t="s">
-        <v>131</v>
-      </c>
-      <c r="B50" s="193">
+      <c r="B50" s="191">
         <v>0.33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="193">
+        <v>137</v>
+      </c>
+      <c r="B51" s="191">
         <v>0.67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="193">
+        <v>138</v>
+      </c>
+      <c r="B52" s="191">
         <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="20"/>
-      <c r="B53" s="190"/>
+      <c r="B53" s="188"/>
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="194">
+      <c r="B54" s="192">
         <v>4.5</v>
       </c>
     </row>
@@ -15069,139 +14750,139 @@
       <c r="A55" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="203">
+      <c r="B55" s="201">
         <v>0.075</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="189"/>
-      <c r="B56" s="190"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="188"/>
     </row>
     <row r="57">
-      <c r="A57" s="191" t="s">
+      <c r="A57" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="190"/>
+      <c r="B57" s="188"/>
     </row>
     <row r="58">
-      <c r="A58" s="189" t="s">
+      <c r="A58" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="190">
+      <c r="B58" s="188">
         <v>1000.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="189" t="s">
+      <c r="A59" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="190">
+      <c r="B59" s="188">
         <v>4000.0</v>
       </c>
     </row>
     <row r="60" hidden="1">
-      <c r="A60" s="189" t="s">
+      <c r="A60" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="191">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="203" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="204">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="205" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="206" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="207">
+        <v>50000.0</v>
+      </c>
+      <c r="D64" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="193">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="205" t="s">
+    </row>
+    <row r="65">
+      <c r="A65" s="187" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="196">
+        <v>1500.0</v>
+      </c>
+      <c r="D65" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="206">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="207" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="50" t="s">
+    </row>
+    <row r="66">
+      <c r="A66" s="187" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="188">
+        <v>1.5E7</v>
+      </c>
+      <c r="D66" s="44" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="208" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="209">
-        <v>50000.0</v>
-      </c>
-      <c r="D64" s="44" t="s">
+      <c r="E66" s="208">
+        <v>1.0E7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="187" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="188">
+        <v>6.0E7</v>
+      </c>
+      <c r="D67" s="44" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="189" t="s">
-        <v>128</v>
-      </c>
-      <c r="B65" s="198">
-        <v>1500.0</v>
-      </c>
-      <c r="D65" s="44" t="s">
+      <c r="E67" s="208">
+        <v>4.5E7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="187" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="200">
+        <v>10.0</v>
+      </c>
+      <c r="D68" s="44" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="189" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="190">
-        <v>1.5E7</v>
-      </c>
-      <c r="D66" s="44" t="s">
+      <c r="E68" s="208">
+        <v>2.5E7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="187" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="210">
-        <v>1.0E7</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="189" t="s">
-        <v>134</v>
-      </c>
-      <c r="B67" s="190">
-        <v>6.0E7</v>
-      </c>
-      <c r="D67" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="E67" s="210">
-        <v>4.5E7</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="189" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="202">
-        <v>10.0</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="210">
-        <v>2.5E7</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="189" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" s="190">
+      <c r="B69" s="188">
         <v>1600000.0</v>
       </c>
       <c r="D69" s="44"/>
       <c r="E69" s="45"/>
     </row>
     <row r="70">
-      <c r="A70" s="191"/>
-      <c r="B70" s="192"/>
+      <c r="A70" s="189"/>
+      <c r="B70" s="190"/>
       <c r="D70" s="44" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E70" s="45">
         <f>SUM(E66:E68)</f>
@@ -15209,35 +14890,35 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="191" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="190"/>
+      <c r="A71" s="189" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="188"/>
       <c r="E71" s="45"/>
     </row>
     <row r="72">
-      <c r="A72" s="189" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="193">
+      <c r="A72" s="187" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="191">
         <v>0.0</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" s="210">
+        <v>149</v>
+      </c>
+      <c r="E72" s="208">
         <v>2.5E7</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="189" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="211">
+      <c r="A73" s="187" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="209">
         <v>0.0</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E73" s="45">
         <f>E70-E72</f>
@@ -15246,39 +14927,39 @@
     </row>
     <row r="74">
       <c r="A74" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="193">
+        <v>137</v>
+      </c>
+      <c r="B74" s="191">
         <v>0.33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B75" s="193">
+        <v>138</v>
+      </c>
+      <c r="B75" s="191">
         <v>0.67</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E75" s="212">
+        <v>151</v>
+      </c>
+      <c r="E75" s="210">
         <v>0.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B76" s="193">
+        <v>152</v>
+      </c>
+      <c r="B76" s="191">
         <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="20"/>
-      <c r="B77" s="194"/>
+      <c r="B77" s="192"/>
       <c r="D77" s="44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E77" s="45">
         <f>E67-(E72*E75)</f>
@@ -15289,13 +14970,13 @@
       <c r="A78" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="194">
+      <c r="B78" s="192">
         <v>6.5</v>
       </c>
       <c r="D78" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E78" s="213">
+        <v>144</v>
+      </c>
+      <c r="E78" s="211">
         <v>1.0E7</v>
       </c>
     </row>
@@ -15303,11 +14984,11 @@
       <c r="A79" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="203">
+      <c r="B79" s="201">
         <v>0.075</v>
       </c>
       <c r="D79" s="44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E79" s="45">
         <f>SUM(E77:E78)</f>
@@ -15316,22 +14997,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1"/>
-      <c r="B80" s="192"/>
-      <c r="D80" s="214" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="215">
+      <c r="B80" s="190"/>
+      <c r="D80" s="212" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="213">
         <f>E79/E73</f>
         <v>0.7727272727</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="191" t="s">
+      <c r="A81" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="192"/>
+      <c r="B81" s="190"/>
       <c r="D81" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E81" s="45">
         <f>E68-(E72*E75)</f>
@@ -15339,41 +15020,41 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="189" t="s">
+      <c r="A82" s="187" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="190">
+      <c r="B82" s="188">
         <v>2000.0</v>
       </c>
-      <c r="D82" s="214" t="s">
-        <v>160</v>
-      </c>
-      <c r="E82" s="216">
+      <c r="D82" s="212" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="214">
         <f>E81/E73</f>
         <v>0.2272727273</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="189" t="s">
+      <c r="A83" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="190">
+      <c r="B83" s="188">
         <v>8000.0</v>
       </c>
     </row>
     <row r="84" hidden="1">
-      <c r="A84" s="189" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84" s="193">
+      <c r="A84" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="191">
         <v>0.33</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="205" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="206">
+      <c r="A85" s="203" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="204">
         <v>0.33</v>
       </c>
     </row>
@@ -15399,877 +15080,877 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="217" t="s">
-        <v>161</v>
+      <c r="A1" s="215" t="s">
+        <v>158</v>
       </c>
       <c r="B1" s="112"/>
-      <c r="C1" s="218" t="str">
+      <c r="C1" s="216" t="str">
         <f t="shared" ref="C1:F1" si="1">round(C2/sum(C4:C5),0.1)&amp;":1"</f>
         <v>25:1</v>
       </c>
-      <c r="D1" s="218" t="str">
+      <c r="D1" s="216" t="str">
         <f t="shared" si="1"/>
         <v>25:1</v>
       </c>
-      <c r="E1" s="218" t="str">
+      <c r="E1" s="216" t="str">
         <f t="shared" si="1"/>
         <v>25:1</v>
       </c>
-      <c r="F1" s="218" t="str">
+      <c r="F1" s="216" t="str">
         <f t="shared" si="1"/>
         <v>25:1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="112"/>
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="220">
+      <c r="C2" s="218">
         <v>400.0</v>
       </c>
-      <c r="D2" s="220">
+      <c r="D2" s="218">
         <v>400.0</v>
       </c>
-      <c r="E2" s="220">
+      <c r="E2" s="218">
         <v>400.0</v>
       </c>
-      <c r="F2" s="220">
+      <c r="F2" s="218">
         <v>400.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222">
+      <c r="A3" s="219"/>
+      <c r="B3" s="220">
         <v>0.15</v>
       </c>
-      <c r="C3" s="223" t="s">
+      <c r="C3" s="221" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="221" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="221" t="s">
         <v>162</v>
-      </c>
-      <c r="D3" s="223" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="223" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="223" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="224">
+        <v>163</v>
+      </c>
+      <c r="B4" s="222">
         <v>150000.0</v>
       </c>
-      <c r="C4" s="225">
+      <c r="C4" s="223">
         <v>2.0</v>
       </c>
-      <c r="D4" s="225">
+      <c r="D4" s="223">
         <v>2.0</v>
       </c>
-      <c r="E4" s="225">
+      <c r="E4" s="223">
         <v>2.0</v>
       </c>
-      <c r="F4" s="225">
+      <c r="F4" s="223">
         <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="224">
+        <v>164</v>
+      </c>
+      <c r="B5" s="222">
         <v>100000.0</v>
       </c>
-      <c r="C5" s="226">
+      <c r="C5" s="224">
         <v>14.0</v>
       </c>
-      <c r="D5" s="226">
+      <c r="D5" s="224">
         <v>14.0</v>
       </c>
-      <c r="E5" s="226">
+      <c r="E5" s="224">
         <v>14.0</v>
       </c>
-      <c r="F5" s="226">
+      <c r="F5" s="224">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="224">
+        <v>165</v>
+      </c>
+      <c r="B6" s="222">
         <v>60000.0</v>
       </c>
-      <c r="C6" s="225">
+      <c r="C6" s="223">
         <v>2.0</v>
       </c>
-      <c r="D6" s="225">
+      <c r="D6" s="223">
         <v>2.0</v>
       </c>
-      <c r="E6" s="225">
+      <c r="E6" s="223">
         <v>2.0</v>
       </c>
-      <c r="F6" s="225">
+      <c r="F6" s="223">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="224">
+        <v>166</v>
+      </c>
+      <c r="B7" s="222">
         <v>200000.0</v>
       </c>
-      <c r="C7" s="227">
+      <c r="C7" s="225">
         <v>1.0</v>
       </c>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="229"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="227"/>
     </row>
     <row r="8">
       <c r="A8" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="224">
+        <v>167</v>
+      </c>
+      <c r="B8" s="222">
         <v>60000.0</v>
       </c>
-      <c r="C8" s="227">
+      <c r="C8" s="225">
         <v>1.0</v>
       </c>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="229"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="227"/>
     </row>
     <row r="9">
       <c r="A9" s="112" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B9" s="112"/>
-      <c r="C9" s="230">
+      <c r="C9" s="228">
         <f t="shared" ref="C9:F9" si="2">C2/C4</f>
         <v>200</v>
       </c>
-      <c r="D9" s="230">
+      <c r="D9" s="228">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="E9" s="230">
+      <c r="E9" s="228">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F9" s="230">
+      <c r="F9" s="228">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B10" s="112"/>
-      <c r="C10" s="230">
+      <c r="C10" s="228">
         <f t="shared" ref="C10:F10" si="3">C2/(C5+C6)</f>
         <v>25</v>
       </c>
-      <c r="D10" s="230">
+      <c r="D10" s="228">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E10" s="230">
+      <c r="E10" s="228">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="F10" s="230">
+      <c r="F10" s="228">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="112"/>
-      <c r="C11" s="231">
+      <c r="C11" s="229">
         <f t="shared" ref="C11:F11" si="4">(1+$B3)*sumproduct(C4:C6*$B4:$B6)/C2+$I7+$I8</f>
         <v>5232.5</v>
       </c>
-      <c r="D11" s="231">
+      <c r="D11" s="229">
         <f t="shared" si="4"/>
         <v>5232.5</v>
       </c>
-      <c r="E11" s="231">
+      <c r="E11" s="229">
         <f t="shared" si="4"/>
         <v>5232.5</v>
       </c>
-      <c r="F11" s="231">
+      <c r="F11" s="229">
         <f t="shared" si="4"/>
         <v>5232.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="165" t="s">
-        <v>174</v>
+      <c r="A12" s="230" t="s">
+        <v>171</v>
       </c>
       <c r="B12" s="112"/>
-      <c r="C12" s="232">
+      <c r="C12" s="231">
         <f t="shared" ref="C12:F12" si="5">(1+$B$3)*((($C$7*$B$7)+($B$8*$C$8))/C2)</f>
         <v>747.5</v>
       </c>
-      <c r="D12" s="232">
+      <c r="D12" s="231">
         <f t="shared" si="5"/>
         <v>747.5</v>
       </c>
-      <c r="E12" s="232">
+      <c r="E12" s="231">
         <f t="shared" si="5"/>
         <v>747.5</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="231">
         <f t="shared" si="5"/>
         <v>747.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B13" s="112"/>
-      <c r="C13" s="232">
+      <c r="C13" s="231">
         <v>1000.0</v>
       </c>
-      <c r="D13" s="232">
+      <c r="D13" s="231">
         <v>1000.0</v>
       </c>
-      <c r="E13" s="232">
+      <c r="E13" s="231">
         <v>1000.0</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="231">
         <v>1000.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B14" s="112"/>
-      <c r="C14" s="232">
+      <c r="C14" s="231">
         <v>1500.0</v>
       </c>
-      <c r="D14" s="232">
+      <c r="D14" s="231">
         <v>1500.0</v>
       </c>
-      <c r="E14" s="232">
+      <c r="E14" s="231">
         <v>2000.0</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="231">
         <v>2000.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="112" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B15" s="112"/>
-      <c r="C15" s="231">
+      <c r="C15" s="229">
         <f t="shared" ref="C15:F15" si="6">sum(C11:C14)</f>
         <v>8480</v>
       </c>
-      <c r="D15" s="231">
+      <c r="D15" s="229">
         <f t="shared" si="6"/>
         <v>8480</v>
       </c>
-      <c r="E15" s="231">
+      <c r="E15" s="229">
         <f t="shared" si="6"/>
         <v>8980</v>
       </c>
-      <c r="F15" s="231">
+      <c r="F15" s="229">
         <f t="shared" si="6"/>
         <v>8980</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="217" t="s">
-        <v>161</v>
+      <c r="A17" s="215" t="s">
+        <v>158</v>
       </c>
       <c r="B17" s="112"/>
-      <c r="C17" s="218" t="str">
+      <c r="C17" s="216" t="str">
         <f t="shared" ref="C17:F17" si="7">round(C18/sum(C20:C21),0.1)&amp;":1"</f>
         <v>25:1</v>
       </c>
-      <c r="D17" s="218" t="str">
+      <c r="D17" s="216" t="str">
         <f t="shared" si="7"/>
         <v>25:1</v>
       </c>
-      <c r="E17" s="218" t="str">
+      <c r="E17" s="216" t="str">
         <f t="shared" si="7"/>
         <v>25:1</v>
       </c>
-      <c r="F17" s="218" t="str">
+      <c r="F17" s="216" t="str">
         <f t="shared" si="7"/>
         <v>25:1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="112"/>
-      <c r="B18" s="219" t="s">
+      <c r="B18" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="220">
+      <c r="C18" s="218">
         <v>1000.0</v>
       </c>
-      <c r="D18" s="220">
+      <c r="D18" s="218">
         <v>1000.0</v>
       </c>
-      <c r="E18" s="220">
+      <c r="E18" s="218">
         <v>1000.0</v>
       </c>
-      <c r="F18" s="220">
+      <c r="F18" s="218">
         <v>1000.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="221"/>
-      <c r="B19" s="222">
+      <c r="A19" s="219"/>
+      <c r="B19" s="220">
         <v>0.15</v>
       </c>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="221" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="221" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="221" t="s">
         <v>162</v>
-      </c>
-      <c r="D19" s="223" t="s">
-        <v>163</v>
-      </c>
-      <c r="E19" s="223" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="223" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="224">
+        <v>163</v>
+      </c>
+      <c r="B20" s="222">
         <v>150000.0</v>
       </c>
-      <c r="C20" s="225">
+      <c r="C20" s="223">
         <v>2.0</v>
       </c>
-      <c r="D20" s="225">
+      <c r="D20" s="223">
         <v>2.0</v>
       </c>
-      <c r="E20" s="225">
+      <c r="E20" s="223">
         <v>2.0</v>
       </c>
-      <c r="F20" s="225">
+      <c r="F20" s="223">
         <v>2.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="224">
+        <v>164</v>
+      </c>
+      <c r="B21" s="222">
         <v>100000.0</v>
       </c>
-      <c r="C21" s="233">
+      <c r="C21" s="232">
         <f t="shared" ref="C21:F21" si="8">C18/C26-C20</f>
         <v>38</v>
       </c>
-      <c r="D21" s="233">
+      <c r="D21" s="232">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="E21" s="233">
+      <c r="E21" s="232">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="F21" s="233">
+      <c r="F21" s="232">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="224">
+        <v>165</v>
+      </c>
+      <c r="B22" s="222">
         <v>60000.0</v>
       </c>
-      <c r="C22" s="225">
+      <c r="C22" s="223">
         <v>8.0</v>
       </c>
-      <c r="D22" s="225">
+      <c r="D22" s="223">
         <v>8.0</v>
       </c>
-      <c r="E22" s="225">
+      <c r="E22" s="223">
         <v>8.0</v>
       </c>
-      <c r="F22" s="225">
+      <c r="F22" s="223">
         <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="224">
+        <v>166</v>
+      </c>
+      <c r="B23" s="222">
         <v>200000.0</v>
       </c>
-      <c r="C23" s="227">
+      <c r="C23" s="225">
         <v>1.0</v>
       </c>
-      <c r="D23" s="228"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="229"/>
+      <c r="D23" s="226"/>
+      <c r="E23" s="226"/>
+      <c r="F23" s="227"/>
     </row>
     <row r="24">
       <c r="A24" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="224">
+        <v>167</v>
+      </c>
+      <c r="B24" s="222">
         <v>60000.0</v>
       </c>
-      <c r="C24" s="227">
+      <c r="C24" s="225">
         <v>1.0</v>
       </c>
-      <c r="D24" s="228"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="229"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="226"/>
+      <c r="F24" s="227"/>
     </row>
     <row r="25">
       <c r="A25" s="112" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25" s="112"/>
-      <c r="C25" s="225">
+      <c r="C25" s="223">
         <f t="shared" ref="C25:F25" si="9">C18/C20</f>
         <v>500</v>
       </c>
-      <c r="D25" s="225">
+      <c r="D25" s="223">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="E25" s="225">
+      <c r="E25" s="223">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
-      <c r="F25" s="225">
+      <c r="F25" s="223">
         <f t="shared" si="9"/>
         <v>500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" s="112"/>
-      <c r="C26" s="230">
+      <c r="C26" s="228">
         <v>25.0</v>
       </c>
-      <c r="D26" s="230">
+      <c r="D26" s="228">
         <v>25.0</v>
       </c>
-      <c r="E26" s="230">
+      <c r="E26" s="228">
         <v>25.0</v>
       </c>
-      <c r="F26" s="230">
+      <c r="F26" s="228">
         <v>25.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" s="112"/>
-      <c r="C27" s="231">
+      <c r="C27" s="229">
         <f t="shared" ref="C27:F27" si="10">(1+$B19)*sumproduct(C20:C22*$B20:$B22)/C18+$I23+$I24</f>
         <v>5267</v>
       </c>
-      <c r="D27" s="231">
+      <c r="D27" s="229">
         <f t="shared" si="10"/>
         <v>5267</v>
       </c>
-      <c r="E27" s="231">
+      <c r="E27" s="229">
         <f t="shared" si="10"/>
         <v>5267</v>
       </c>
-      <c r="F27" s="231">
+      <c r="F27" s="229">
         <f t="shared" si="10"/>
         <v>5267</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="165" t="s">
-        <v>174</v>
+      <c r="A28" s="230" t="s">
+        <v>171</v>
       </c>
       <c r="B28" s="112"/>
-      <c r="C28" s="232">
+      <c r="C28" s="231">
         <f t="shared" ref="C28:F28" si="11">(1+$B$19)*((($C$23*$B$23)+($B$24*$C$24))/C18)</f>
         <v>299</v>
       </c>
-      <c r="D28" s="232">
+      <c r="D28" s="231">
         <f t="shared" si="11"/>
         <v>299</v>
       </c>
-      <c r="E28" s="232">
+      <c r="E28" s="231">
         <f t="shared" si="11"/>
         <v>299</v>
       </c>
-      <c r="F28" s="232">
+      <c r="F28" s="231">
         <f t="shared" si="11"/>
         <v>299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" s="112"/>
-      <c r="C29" s="232">
+      <c r="C29" s="231">
         <v>1000.0</v>
       </c>
-      <c r="D29" s="232">
+      <c r="D29" s="231">
         <v>1000.0</v>
       </c>
-      <c r="E29" s="232">
+      <c r="E29" s="231">
         <v>1000.0</v>
       </c>
-      <c r="F29" s="232">
+      <c r="F29" s="231">
         <v>1000.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" s="112"/>
-      <c r="C30" s="232">
+      <c r="C30" s="231">
         <v>1500.0</v>
       </c>
-      <c r="D30" s="232">
+      <c r="D30" s="231">
         <v>1500.0</v>
       </c>
-      <c r="E30" s="232">
+      <c r="E30" s="231">
         <v>2000.0</v>
       </c>
-      <c r="F30" s="232">
+      <c r="F30" s="231">
         <v>2000.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="112" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" s="112"/>
-      <c r="C31" s="231">
+      <c r="C31" s="229">
         <f t="shared" ref="C31:F31" si="12">sum(C27:C30)</f>
         <v>8066</v>
       </c>
-      <c r="D31" s="231">
+      <c r="D31" s="229">
         <f t="shared" si="12"/>
         <v>8066</v>
       </c>
-      <c r="E31" s="231">
+      <c r="E31" s="229">
         <f t="shared" si="12"/>
         <v>8566</v>
       </c>
-      <c r="F31" s="231">
+      <c r="F31" s="229">
         <f t="shared" si="12"/>
         <v>8566</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="217" t="s">
-        <v>161</v>
+      <c r="A33" s="215" t="s">
+        <v>158</v>
       </c>
       <c r="B33" s="112"/>
-      <c r="C33" s="218" t="str">
+      <c r="C33" s="216" t="str">
         <f t="shared" ref="C33:F33" si="13">round(C34/sum(C36:C37),0.1)&amp;":1"</f>
         <v>25:1</v>
       </c>
-      <c r="D33" s="218" t="str">
+      <c r="D33" s="216" t="str">
         <f t="shared" si="13"/>
         <v>25:1</v>
       </c>
-      <c r="E33" s="218" t="str">
+      <c r="E33" s="216" t="str">
         <f t="shared" si="13"/>
         <v>25:1</v>
       </c>
-      <c r="F33" s="218" t="str">
+      <c r="F33" s="216" t="str">
         <f t="shared" si="13"/>
         <v>25:1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="112"/>
-      <c r="B34" s="219" t="s">
+      <c r="B34" s="217" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="220">
+      <c r="C34" s="218">
         <v>1500.0</v>
       </c>
-      <c r="D34" s="220">
+      <c r="D34" s="218">
         <v>1500.0</v>
       </c>
-      <c r="E34" s="220">
+      <c r="E34" s="218">
         <v>1500.0</v>
       </c>
-      <c r="F34" s="220">
+      <c r="F34" s="218">
         <v>1500.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="221"/>
-      <c r="B35" s="222">
+      <c r="A35" s="219"/>
+      <c r="B35" s="220">
         <v>0.15</v>
       </c>
-      <c r="C35" s="223" t="s">
+      <c r="C35" s="221" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="221" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="221" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" s="221" t="s">
         <v>162</v>
-      </c>
-      <c r="D35" s="223" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="223" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="223" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="224">
+        <v>163</v>
+      </c>
+      <c r="B36" s="222">
         <v>150000.0</v>
       </c>
-      <c r="C36" s="225">
+      <c r="C36" s="223">
         <v>2.0</v>
       </c>
-      <c r="D36" s="225">
+      <c r="D36" s="223">
         <v>2.0</v>
       </c>
-      <c r="E36" s="225">
+      <c r="E36" s="223">
         <v>2.0</v>
       </c>
-      <c r="F36" s="225">
+      <c r="F36" s="223">
         <v>2.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="224">
+        <v>164</v>
+      </c>
+      <c r="B37" s="222">
         <v>100000.0</v>
       </c>
-      <c r="C37" s="233">
+      <c r="C37" s="232">
         <f t="shared" ref="C37:F37" si="14">C34/C42-C36</f>
         <v>58</v>
       </c>
-      <c r="D37" s="233">
+      <c r="D37" s="232">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="E37" s="233">
+      <c r="E37" s="232">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
-      <c r="F37" s="233">
+      <c r="F37" s="232">
         <f t="shared" si="14"/>
         <v>58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="112" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="224">
+        <v>165</v>
+      </c>
+      <c r="B38" s="222">
         <v>60000.0</v>
       </c>
-      <c r="C38" s="225">
+      <c r="C38" s="223">
         <v>8.0</v>
       </c>
-      <c r="D38" s="225">
+      <c r="D38" s="223">
         <v>8.0</v>
       </c>
-      <c r="E38" s="225">
+      <c r="E38" s="223">
         <v>8.0</v>
       </c>
-      <c r="F38" s="225">
+      <c r="F38" s="223">
         <v>8.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="112" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="224">
+        <v>166</v>
+      </c>
+      <c r="B39" s="222">
         <v>200000.0</v>
       </c>
-      <c r="C39" s="227">
+      <c r="C39" s="225">
         <v>1.0</v>
       </c>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="229"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="226"/>
+      <c r="F39" s="227"/>
     </row>
     <row r="40">
       <c r="A40" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="224">
+        <v>167</v>
+      </c>
+      <c r="B40" s="222">
         <v>60000.0</v>
       </c>
-      <c r="C40" s="227">
+      <c r="C40" s="225">
         <v>1.0</v>
       </c>
-      <c r="D40" s="228"/>
-      <c r="E40" s="228"/>
-      <c r="F40" s="229"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="227"/>
     </row>
     <row r="41">
       <c r="A41" s="112" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B41" s="112"/>
-      <c r="C41" s="225">
+      <c r="C41" s="223">
         <f t="shared" ref="C41:F41" si="15">C34/C36</f>
         <v>750</v>
       </c>
-      <c r="D41" s="225">
+      <c r="D41" s="223">
         <f t="shared" si="15"/>
         <v>750</v>
       </c>
-      <c r="E41" s="225">
+      <c r="E41" s="223">
         <f t="shared" si="15"/>
         <v>750</v>
       </c>
-      <c r="F41" s="225">
+      <c r="F41" s="223">
         <f t="shared" si="15"/>
         <v>750</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="112" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B42" s="112"/>
-      <c r="C42" s="230">
+      <c r="C42" s="228">
         <v>25.0</v>
       </c>
-      <c r="D42" s="230">
+      <c r="D42" s="228">
         <v>25.0</v>
       </c>
-      <c r="E42" s="230">
+      <c r="E42" s="228">
         <v>25.0</v>
       </c>
-      <c r="F42" s="230">
+      <c r="F42" s="228">
         <v>25.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B43" s="112"/>
-      <c r="C43" s="231">
+      <c r="C43" s="229">
         <f t="shared" ref="C43:F43" si="16">(1+$B35)*sumproduct(C36:C38*$B36:$B38)/C34+$I39+$I40</f>
         <v>5044.666667</v>
       </c>
-      <c r="D43" s="231">
+      <c r="D43" s="229">
         <f t="shared" si="16"/>
         <v>5044.666667</v>
       </c>
-      <c r="E43" s="231">
+      <c r="E43" s="229">
         <f t="shared" si="16"/>
         <v>5044.666667</v>
       </c>
-      <c r="F43" s="231">
+      <c r="F43" s="229">
         <f t="shared" si="16"/>
         <v>5044.666667</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="165" t="s">
-        <v>174</v>
+      <c r="A44" s="230" t="s">
+        <v>171</v>
       </c>
       <c r="B44" s="112"/>
-      <c r="C44" s="232">
+      <c r="C44" s="231">
         <f t="shared" ref="C44:F44" si="17">(1+$B$19)*((($C$23*$B$23)+($B$24*$C$24))/C34)</f>
         <v>199.3333333</v>
       </c>
-      <c r="D44" s="232">
+      <c r="D44" s="231">
         <f t="shared" si="17"/>
         <v>199.3333333</v>
       </c>
-      <c r="E44" s="232">
+      <c r="E44" s="231">
         <f t="shared" si="17"/>
         <v>199.3333333</v>
       </c>
-      <c r="F44" s="232">
+      <c r="F44" s="231">
         <f t="shared" si="17"/>
         <v>199.3333333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="112" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B45" s="112"/>
-      <c r="C45" s="232">
+      <c r="C45" s="231">
         <v>1000.0</v>
       </c>
-      <c r="D45" s="232">
+      <c r="D45" s="231">
         <v>1000.0</v>
       </c>
-      <c r="E45" s="232">
+      <c r="E45" s="231">
         <v>1000.0</v>
       </c>
-      <c r="F45" s="232">
+      <c r="F45" s="231">
         <v>1000.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B46" s="112"/>
-      <c r="C46" s="232">
+      <c r="C46" s="231">
         <v>1500.0</v>
       </c>
-      <c r="D46" s="232">
+      <c r="D46" s="231">
         <v>1500.0</v>
       </c>
-      <c r="E46" s="232">
+      <c r="E46" s="231">
         <v>2000.0</v>
       </c>
-      <c r="F46" s="232">
+      <c r="F46" s="231">
         <v>2000.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="112" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B47" s="112"/>
-      <c r="C47" s="231">
+      <c r="C47" s="229">
         <f t="shared" ref="C47:F47" si="18">sum(C43:C46)</f>
         <v>7744</v>
       </c>
-      <c r="D47" s="231">
+      <c r="D47" s="229">
         <f t="shared" si="18"/>
         <v>7744</v>
       </c>
-      <c r="E47" s="231">
+      <c r="E47" s="229">
         <f t="shared" si="18"/>
         <v>8244</v>
       </c>
-      <c r="F47" s="231">
+      <c r="F47" s="229">
         <f t="shared" si="18"/>
         <v>8244</v>
       </c>

--- a/TSA Model.xlsx
+++ b/TSA Model.xlsx
@@ -2807,27 +2807,27 @@
       </c>
       <c r="H25" s="24">
         <f>'Flagship Schools'!H64</f>
-        <v>11782412.5</v>
+        <v>11776720</v>
       </c>
       <c r="I25" s="24">
         <f>'Flagship Schools'!I64</f>
-        <v>27218837.5</v>
+        <v>27207280</v>
       </c>
       <c r="J25" s="24">
         <f>'Flagship Schools'!J64</f>
-        <v>55583662.5</v>
+        <v>55560720</v>
       </c>
       <c r="K25" s="24">
         <f>'Flagship Schools'!K64</f>
-        <v>71020087.5</v>
+        <v>70991280</v>
       </c>
       <c r="L25" s="24">
         <f>'Flagship Schools'!L64</f>
-        <v>99384912.5</v>
+        <v>99344720</v>
       </c>
       <c r="M25" s="24">
         <f>'Flagship Schools'!M64</f>
-        <v>114821337.5</v>
+        <v>114775280</v>
       </c>
     </row>
     <row r="26">
@@ -2856,27 +2856,27 @@
       </c>
       <c r="H26" s="26">
         <f t="shared" si="3"/>
-        <v>777165562.5</v>
+        <v>777159870</v>
       </c>
       <c r="I26" s="26">
         <f t="shared" si="3"/>
-        <v>1153450238</v>
+        <v>1153438680</v>
       </c>
       <c r="J26" s="26">
         <f t="shared" si="3"/>
-        <v>1527624163</v>
+        <v>1527601220</v>
       </c>
       <c r="K26" s="26">
         <f t="shared" si="3"/>
-        <v>1787282888</v>
+        <v>1787254080</v>
       </c>
       <c r="L26" s="26">
         <f t="shared" si="3"/>
-        <v>2220859163</v>
+        <v>2220818970</v>
       </c>
       <c r="M26" s="27">
         <f t="shared" si="3"/>
-        <v>3077311375</v>
+        <v>3077265318</v>
       </c>
     </row>
     <row r="27">
@@ -2905,27 +2905,27 @@
       </c>
       <c r="H27" s="29">
         <f t="shared" si="4"/>
-        <v>0.270230103</v>
+        <v>0.2702281237</v>
       </c>
       <c r="I27" s="29">
         <f t="shared" si="4"/>
-        <v>0.2859725438</v>
+        <v>0.2859696784</v>
       </c>
       <c r="J27" s="29">
         <f t="shared" si="4"/>
-        <v>0.3017427884</v>
+        <v>0.3017382567</v>
       </c>
       <c r="K27" s="29">
         <f t="shared" si="4"/>
-        <v>0.2945467035</v>
+        <v>0.294541956</v>
       </c>
       <c r="L27" s="29">
         <f t="shared" si="4"/>
-        <v>0.2893759536</v>
+        <v>0.2893707166</v>
       </c>
       <c r="M27" s="29">
         <f t="shared" si="4"/>
-        <v>0.3022669075</v>
+        <v>0.3022623835</v>
       </c>
     </row>
     <row r="28">
@@ -3141,47 +3141,47 @@
       </c>
       <c r="C35" s="8">
         <f>'Virtual Schools'!C30</f>
-        <v>37240000</v>
+        <v>12240000</v>
       </c>
       <c r="D35" s="8">
         <f>'Virtual Schools'!D30</f>
-        <v>74480000</v>
+        <v>37605000</v>
       </c>
       <c r="E35" s="8">
         <f>'Virtual Schools'!E30</f>
-        <v>111720000</v>
+        <v>62970000</v>
       </c>
       <c r="F35" s="8">
         <f>'Virtual Schools'!F30</f>
-        <v>148960000</v>
+        <v>88335000</v>
       </c>
       <c r="G35" s="8">
         <f>'Virtual Schools'!G30</f>
-        <v>186200000</v>
+        <v>113700000</v>
       </c>
       <c r="H35" s="8">
         <f>'Virtual Schools'!H30</f>
-        <v>223440000</v>
+        <v>139065000</v>
       </c>
       <c r="I35" s="8">
         <f>'Virtual Schools'!I30</f>
-        <v>260680000</v>
+        <v>164430000</v>
       </c>
       <c r="J35" s="8">
         <f>'Virtual Schools'!J30</f>
-        <v>297920000</v>
+        <v>189795000</v>
       </c>
       <c r="K35" s="8">
         <f>'Virtual Schools'!K30</f>
-        <v>335160000</v>
+        <v>215160000</v>
       </c>
       <c r="L35" s="8">
         <f>'Virtual Schools'!L30</f>
-        <v>372400000</v>
+        <v>240525000</v>
       </c>
       <c r="M35" s="8">
         <f>'Virtual Schools'!M30</f>
-        <v>372400000</v>
+        <v>253650000</v>
       </c>
     </row>
     <row r="36">
@@ -3308,27 +3308,27 @@
       </c>
       <c r="H38" s="24">
         <f>'Flagship Schools'!H72</f>
-        <v>9307412.5</v>
+        <v>9301720</v>
       </c>
       <c r="I38" s="24">
         <f>'Flagship Schools'!I72</f>
-        <v>24103068.27</v>
+        <v>24091510.77</v>
       </c>
       <c r="J38" s="24">
         <f>'Flagship Schools'!J72</f>
-        <v>49485585.58</v>
+        <v>49462643.08</v>
       </c>
       <c r="K38" s="24">
         <f>'Flagship Schools'!K72</f>
-        <v>66185472.12</v>
+        <v>66156664.62</v>
       </c>
       <c r="L38" s="24">
         <f>'Flagship Schools'!L72</f>
-        <v>91567989.42</v>
+        <v>91527796.92</v>
       </c>
       <c r="M38" s="24">
         <f>'Flagship Schools'!M72</f>
-        <v>108272876</v>
+        <v>108226818.5</v>
       </c>
     </row>
     <row r="39">
@@ -3337,47 +3337,47 @@
       </c>
       <c r="C39" s="26">
         <f t="shared" ref="C39:M39" si="6">SUM(C35:C38)</f>
-        <v>36218464</v>
+        <v>11218464</v>
       </c>
       <c r="D39" s="26">
         <f t="shared" si="6"/>
-        <v>68115905</v>
+        <v>31240905</v>
       </c>
       <c r="E39" s="26">
         <f t="shared" si="6"/>
-        <v>111387895</v>
+        <v>62637895</v>
       </c>
       <c r="F39" s="26">
         <f t="shared" si="6"/>
-        <v>156732685</v>
+        <v>96107685</v>
       </c>
       <c r="G39" s="26">
         <f t="shared" si="6"/>
-        <v>240524050</v>
+        <v>168024050</v>
       </c>
       <c r="H39" s="26">
         <f t="shared" si="6"/>
-        <v>446595562.5</v>
+        <v>362214870</v>
       </c>
       <c r="I39" s="26">
         <f t="shared" si="6"/>
-        <v>768941468.3</v>
+        <v>672679910.8</v>
       </c>
       <c r="J39" s="26">
         <f t="shared" si="6"/>
-        <v>1099996086</v>
+        <v>991848143.1</v>
       </c>
       <c r="K39" s="26">
         <f t="shared" si="6"/>
-        <v>1308908272</v>
+        <v>1188879465</v>
       </c>
       <c r="L39" s="26">
         <f t="shared" si="6"/>
-        <v>1571987239</v>
+        <v>1440072047</v>
       </c>
       <c r="M39" s="27">
         <f t="shared" si="6"/>
-        <v>2137737913</v>
+        <v>2018941856</v>
       </c>
     </row>
     <row r="40">
@@ -3386,47 +3386,47 @@
       </c>
       <c r="C40" s="29">
         <f t="shared" ref="C40:M40" si="7">C39/C16</f>
-        <v>0.3243492948</v>
+        <v>0.1004653562</v>
       </c>
       <c r="D40" s="29">
         <f t="shared" si="7"/>
-        <v>0.2849680166</v>
+        <v>0.130698678</v>
       </c>
       <c r="E40" s="29">
         <f t="shared" si="7"/>
-        <v>0.2543857652</v>
+        <v>0.1430513509</v>
       </c>
       <c r="F40" s="29">
         <f t="shared" si="7"/>
-        <v>0.2042093067</v>
+        <v>0.1252201079</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" si="7"/>
-        <v>0.1630450447</v>
+        <v>0.1138991662</v>
       </c>
       <c r="H40" s="29">
         <f t="shared" si="7"/>
-        <v>0.1552868149</v>
+        <v>0.1259466018</v>
       </c>
       <c r="I40" s="29">
         <f t="shared" si="7"/>
-        <v>0.1906420759</v>
+        <v>0.1667761461</v>
       </c>
       <c r="J40" s="29">
         <f t="shared" si="7"/>
-        <v>0.2172758812</v>
+        <v>0.195914042</v>
       </c>
       <c r="K40" s="29">
         <f t="shared" si="7"/>
-        <v>0.2157099021</v>
+        <v>0.1959289878</v>
       </c>
       <c r="L40" s="29">
         <f t="shared" si="7"/>
-        <v>0.204828525</v>
+        <v>0.1876400939</v>
       </c>
       <c r="M40" s="29">
         <f t="shared" si="7"/>
-        <v>0.2099779156</v>
+        <v>0.1983092501</v>
       </c>
     </row>
     <row r="41">
@@ -3465,47 +3465,47 @@
       </c>
       <c r="C43" s="8">
         <f>'Virtual Schools'!C32</f>
-        <v>37240000</v>
+        <v>12240000</v>
       </c>
       <c r="D43" s="8">
         <f>'Virtual Schools'!D32</f>
-        <v>74480000</v>
+        <v>37605000</v>
       </c>
       <c r="E43" s="8">
         <f>'Virtual Schools'!E32</f>
-        <v>111720000</v>
+        <v>62970000</v>
       </c>
       <c r="F43" s="8">
         <f>'Virtual Schools'!F32</f>
-        <v>148960000</v>
+        <v>88335000</v>
       </c>
       <c r="G43" s="8">
         <f>'Virtual Schools'!G32</f>
-        <v>186200000</v>
+        <v>113700000</v>
       </c>
       <c r="H43" s="8">
         <f>'Virtual Schools'!H32</f>
-        <v>223440000</v>
+        <v>139065000</v>
       </c>
       <c r="I43" s="8">
         <f>'Virtual Schools'!I32</f>
-        <v>260680000</v>
+        <v>164430000</v>
       </c>
       <c r="J43" s="8">
         <f>'Virtual Schools'!J32</f>
-        <v>297920000</v>
+        <v>189795000</v>
       </c>
       <c r="K43" s="8">
         <f>'Virtual Schools'!K32</f>
-        <v>335160000</v>
+        <v>215160000</v>
       </c>
       <c r="L43" s="8">
         <f>'Virtual Schools'!L32</f>
-        <v>372400000</v>
+        <v>240525000</v>
       </c>
       <c r="M43" s="8">
         <f>'Virtual Schools'!M32</f>
-        <v>372400000</v>
+        <v>253650000</v>
       </c>
     </row>
     <row r="44">
@@ -3632,27 +3632,27 @@
       </c>
       <c r="H46" s="8">
         <f>'Flagship Schools'!H72-'Flagship Schools'!H54</f>
-        <v>-65692587.5</v>
+        <v>-65698280</v>
       </c>
       <c r="I46" s="8">
         <f>'Flagship Schools'!I72-'Flagship Schools'!I54</f>
-        <v>24103068.27</v>
+        <v>24091510.77</v>
       </c>
       <c r="J46" s="8">
         <f>'Flagship Schools'!J72-'Flagship Schools'!J54</f>
-        <v>-25514414.42</v>
+        <v>-25537356.92</v>
       </c>
       <c r="K46" s="8">
         <f>'Flagship Schools'!K72-'Flagship Schools'!K54</f>
-        <v>66185472.12</v>
+        <v>66156664.62</v>
       </c>
       <c r="L46" s="8">
         <f>'Flagship Schools'!L72-'Flagship Schools'!L54</f>
-        <v>16567989.42</v>
+        <v>16527796.92</v>
       </c>
       <c r="M46" s="8">
         <f>'Flagship Schools'!M72-'Flagship Schools'!M54</f>
-        <v>108272876</v>
+        <v>108226818.5</v>
       </c>
     </row>
     <row r="47">
@@ -3740,47 +3740,47 @@
       </c>
       <c r="C50" s="35">
         <f t="shared" ref="C50:M50" si="8">SUM(C43:C46)</f>
-        <v>11218464</v>
+        <v>-13781536</v>
       </c>
       <c r="D50" s="35">
         <f t="shared" si="8"/>
-        <v>-191884095</v>
+        <v>-228759095</v>
       </c>
       <c r="E50" s="35">
         <f t="shared" si="8"/>
-        <v>-213612105</v>
+        <v>-262362105</v>
       </c>
       <c r="F50" s="35">
         <f t="shared" si="8"/>
-        <v>-893267315</v>
+        <v>-953892315</v>
       </c>
       <c r="G50" s="35">
         <f t="shared" si="8"/>
-        <v>-1384475950</v>
+        <v>-1456975950</v>
       </c>
       <c r="H50" s="35">
         <f t="shared" si="8"/>
-        <v>-1253404438</v>
+        <v>-1337785130</v>
       </c>
       <c r="I50" s="35">
         <f t="shared" si="8"/>
-        <v>-856058531.7</v>
+        <v>-952320089.2</v>
       </c>
       <c r="J50" s="35">
         <f t="shared" si="8"/>
-        <v>-600003914.4</v>
+        <v>-708151856.9</v>
       </c>
       <c r="K50" s="35">
         <f t="shared" si="8"/>
-        <v>-3566091728</v>
+        <v>-3686120535</v>
       </c>
       <c r="L50" s="35">
         <f t="shared" si="8"/>
-        <v>-5815512761</v>
+        <v>-5947427953</v>
       </c>
       <c r="M50" s="36">
         <f t="shared" si="8"/>
-        <v>-3549762087</v>
+        <v>-3668558144</v>
       </c>
     </row>
     <row r="51">
@@ -3799,7 +3799,7 @@
       <c r="L51" s="39"/>
       <c r="M51" s="40">
         <f>(M39*17.5)+M49</f>
-        <v>58735513486</v>
+        <v>56656582479</v>
       </c>
     </row>
     <row r="52">
@@ -3808,47 +3808,47 @@
       </c>
       <c r="C52" s="41">
         <f t="shared" ref="C52:M52" si="9">C50+C51</f>
-        <v>11218464</v>
+        <v>-13781536</v>
       </c>
       <c r="D52" s="41">
         <f t="shared" si="9"/>
-        <v>-191884095</v>
+        <v>-228759095</v>
       </c>
       <c r="E52" s="41">
         <f t="shared" si="9"/>
-        <v>-213612105</v>
+        <v>-262362105</v>
       </c>
       <c r="F52" s="41">
         <f t="shared" si="9"/>
-        <v>-893267315</v>
+        <v>-953892315</v>
       </c>
       <c r="G52" s="41">
         <f t="shared" si="9"/>
-        <v>-1384475950</v>
+        <v>-1456975950</v>
       </c>
       <c r="H52" s="41">
         <f t="shared" si="9"/>
-        <v>-1253404438</v>
+        <v>-1337785130</v>
       </c>
       <c r="I52" s="41">
         <f t="shared" si="9"/>
-        <v>-856058531.7</v>
+        <v>-952320089.2</v>
       </c>
       <c r="J52" s="41">
         <f t="shared" si="9"/>
-        <v>-600003914.4</v>
+        <v>-708151856.9</v>
       </c>
       <c r="K52" s="41">
         <f t="shared" si="9"/>
-        <v>-3566091728</v>
+        <v>-3686120535</v>
       </c>
       <c r="L52" s="41">
         <f t="shared" si="9"/>
-        <v>-5815512761</v>
+        <v>-5947427953</v>
       </c>
       <c r="M52" s="41">
         <f t="shared" si="9"/>
-        <v>55185751399</v>
+        <v>52988024335</v>
       </c>
     </row>
     <row r="53">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C53" s="42">
         <f>IRR(C52:M52)</f>
-        <v>0.4092369927</v>
+        <v>0.3729277893</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -4132,47 +4132,47 @@
       </c>
       <c r="C73" s="45">
         <f t="shared" ref="C73:M73" si="13">$C$63*C$39</f>
-        <v>543276960</v>
+        <v>168276960</v>
       </c>
       <c r="D73" s="45">
         <f t="shared" si="13"/>
-        <v>1021738575</v>
+        <v>468613575</v>
       </c>
       <c r="E73" s="45">
         <f t="shared" si="13"/>
-        <v>1670818425</v>
+        <v>939568425</v>
       </c>
       <c r="F73" s="45">
         <f t="shared" si="13"/>
-        <v>2350990275</v>
+        <v>1441615275</v>
       </c>
       <c r="G73" s="45">
         <f t="shared" si="13"/>
-        <v>3607860750</v>
+        <v>2520360750</v>
       </c>
       <c r="H73" s="45">
         <f t="shared" si="13"/>
-        <v>6698933438</v>
+        <v>5433223050</v>
       </c>
       <c r="I73" s="45">
         <f t="shared" si="13"/>
-        <v>11534122024</v>
+        <v>10090198662</v>
       </c>
       <c r="J73" s="45">
         <f t="shared" si="13"/>
-        <v>16499941284</v>
+        <v>14877722146</v>
       </c>
       <c r="K73" s="45">
         <f t="shared" si="13"/>
-        <v>19633624082</v>
+        <v>17833191969</v>
       </c>
       <c r="L73" s="45">
         <f t="shared" si="13"/>
-        <v>23579808591</v>
+        <v>21601080704</v>
       </c>
       <c r="M73" s="45">
         <f t="shared" si="13"/>
-        <v>32066068702</v>
+        <v>30284127839</v>
       </c>
     </row>
     <row r="74">
@@ -4181,47 +4181,47 @@
       </c>
       <c r="C74" s="45">
         <f t="shared" ref="C74:M74" si="14">$C$64*C$39</f>
-        <v>633823120</v>
+        <v>196323120</v>
       </c>
       <c r="D74" s="45">
         <f t="shared" si="14"/>
-        <v>1192028338</v>
+        <v>546715837.5</v>
       </c>
       <c r="E74" s="45">
         <f t="shared" si="14"/>
-        <v>1949288163</v>
+        <v>1096163163</v>
       </c>
       <c r="F74" s="45">
         <f t="shared" si="14"/>
-        <v>2742821988</v>
+        <v>1681884488</v>
       </c>
       <c r="G74" s="45">
         <f t="shared" si="14"/>
-        <v>4209170875</v>
+        <v>2940420875</v>
       </c>
       <c r="H74" s="45">
         <f t="shared" si="14"/>
-        <v>7815422344</v>
+        <v>6338760225</v>
       </c>
       <c r="I74" s="45">
         <f t="shared" si="14"/>
-        <v>13456475695</v>
+        <v>11771898438</v>
       </c>
       <c r="J74" s="45">
         <f t="shared" si="14"/>
-        <v>19249931498</v>
+        <v>17357342504</v>
       </c>
       <c r="K74" s="45">
         <f t="shared" si="14"/>
-        <v>22905894762</v>
+        <v>20805390631</v>
       </c>
       <c r="L74" s="45">
         <f t="shared" si="14"/>
-        <v>27509776690</v>
+        <v>25201260821</v>
       </c>
       <c r="M74" s="45">
         <f t="shared" si="14"/>
-        <v>37410413486</v>
+        <v>35331482479</v>
       </c>
     </row>
     <row r="75">
@@ -4230,47 +4230,47 @@
       </c>
       <c r="C75" s="45">
         <f t="shared" ref="C75:M75" si="15">$C$65*C$39</f>
-        <v>724369280</v>
+        <v>224369280</v>
       </c>
       <c r="D75" s="45">
         <f t="shared" si="15"/>
-        <v>1362318100</v>
+        <v>624818100</v>
       </c>
       <c r="E75" s="45">
         <f t="shared" si="15"/>
-        <v>2227757900</v>
+        <v>1252757900</v>
       </c>
       <c r="F75" s="45">
         <f t="shared" si="15"/>
-        <v>3134653700</v>
+        <v>1922153700</v>
       </c>
       <c r="G75" s="45">
         <f t="shared" si="15"/>
-        <v>4810481000</v>
+        <v>3360481000</v>
       </c>
       <c r="H75" s="45">
         <f t="shared" si="15"/>
-        <v>8931911250</v>
+        <v>7244297400</v>
       </c>
       <c r="I75" s="45">
         <f t="shared" si="15"/>
-        <v>15378829365</v>
+        <v>13453598215</v>
       </c>
       <c r="J75" s="45">
         <f t="shared" si="15"/>
-        <v>21999921712</v>
+        <v>19836962862</v>
       </c>
       <c r="K75" s="45">
         <f t="shared" si="15"/>
-        <v>26178165442</v>
+        <v>23777589292</v>
       </c>
       <c r="L75" s="45">
         <f t="shared" si="15"/>
-        <v>31439744788</v>
+        <v>28801440938</v>
       </c>
       <c r="M75" s="45">
         <f t="shared" si="15"/>
-        <v>42754758269</v>
+        <v>40378837119</v>
       </c>
     </row>
     <row r="77">
@@ -4284,47 +4284,47 @@
       </c>
       <c r="C78" s="45">
         <f t="shared" ref="C78:M78" si="16">MIN(C68:C75)</f>
-        <v>543276960</v>
+        <v>168276960</v>
       </c>
       <c r="D78" s="45">
         <f t="shared" si="16"/>
-        <v>1021738575</v>
+        <v>468613575</v>
       </c>
       <c r="E78" s="45">
         <f t="shared" si="16"/>
-        <v>1670818425</v>
+        <v>939568425</v>
       </c>
       <c r="F78" s="45">
         <f t="shared" si="16"/>
-        <v>2350990275</v>
+        <v>1441615275</v>
       </c>
       <c r="G78" s="45">
         <f t="shared" si="16"/>
-        <v>3607860750</v>
+        <v>2520360750</v>
       </c>
       <c r="H78" s="45">
         <f t="shared" si="16"/>
-        <v>6698933438</v>
+        <v>5433223050</v>
       </c>
       <c r="I78" s="45">
         <f t="shared" si="16"/>
-        <v>11534122024</v>
+        <v>10090198662</v>
       </c>
       <c r="J78" s="45">
         <f t="shared" si="16"/>
-        <v>16499941284</v>
+        <v>14877722146</v>
       </c>
       <c r="K78" s="45">
         <f t="shared" si="16"/>
-        <v>19633624082</v>
+        <v>17833191969</v>
       </c>
       <c r="L78" s="45">
         <f t="shared" si="16"/>
-        <v>23579808591</v>
+        <v>21601080704</v>
       </c>
       <c r="M78" s="45">
         <f t="shared" si="16"/>
-        <v>32066068702</v>
+        <v>30284127839</v>
       </c>
     </row>
     <row r="79">
@@ -5744,48 +5744,48 @@
         <v>69</v>
       </c>
       <c r="C30" s="87">
-        <f t="shared" ref="C30:M30" si="9">C7-C23</f>
-        <v>37240000</v>
+        <f t="shared" ref="C30:M30" si="9">C7-C23-C28</f>
+        <v>12240000</v>
       </c>
       <c r="D30" s="87">
         <f t="shared" si="9"/>
-        <v>74480000</v>
+        <v>37605000</v>
       </c>
       <c r="E30" s="87">
         <f t="shared" si="9"/>
-        <v>111720000</v>
+        <v>62970000</v>
       </c>
       <c r="F30" s="87">
         <f t="shared" si="9"/>
-        <v>148960000</v>
+        <v>88335000</v>
       </c>
       <c r="G30" s="87">
         <f t="shared" si="9"/>
-        <v>186200000</v>
+        <v>113700000</v>
       </c>
       <c r="H30" s="87">
         <f t="shared" si="9"/>
-        <v>223440000</v>
+        <v>139065000</v>
       </c>
       <c r="I30" s="87">
         <f t="shared" si="9"/>
-        <v>260680000</v>
+        <v>164430000</v>
       </c>
       <c r="J30" s="87">
         <f t="shared" si="9"/>
-        <v>297920000</v>
+        <v>189795000</v>
       </c>
       <c r="K30" s="87">
         <f t="shared" si="9"/>
-        <v>335160000</v>
+        <v>215160000</v>
       </c>
       <c r="L30" s="87">
         <f t="shared" si="9"/>
-        <v>372400000</v>
+        <v>240525000</v>
       </c>
       <c r="M30" s="87">
         <f t="shared" si="9"/>
-        <v>372400000</v>
+        <v>253650000</v>
       </c>
     </row>
     <row r="31">
@@ -5808,47 +5808,47 @@
       </c>
       <c r="C32" s="90">
         <f t="shared" ref="C32:M32" si="10">C30</f>
-        <v>37240000</v>
+        <v>12240000</v>
       </c>
       <c r="D32" s="90">
         <f t="shared" si="10"/>
-        <v>74480000</v>
+        <v>37605000</v>
       </c>
       <c r="E32" s="90">
         <f t="shared" si="10"/>
-        <v>111720000</v>
+        <v>62970000</v>
       </c>
       <c r="F32" s="90">
         <f t="shared" si="10"/>
-        <v>148960000</v>
+        <v>88335000</v>
       </c>
       <c r="G32" s="90">
         <f t="shared" si="10"/>
-        <v>186200000</v>
+        <v>113700000</v>
       </c>
       <c r="H32" s="90">
         <f t="shared" si="10"/>
-        <v>223440000</v>
+        <v>139065000</v>
       </c>
       <c r="I32" s="90">
         <f t="shared" si="10"/>
-        <v>260680000</v>
+        <v>164430000</v>
       </c>
       <c r="J32" s="90">
         <f t="shared" si="10"/>
-        <v>297920000</v>
+        <v>189795000</v>
       </c>
       <c r="K32" s="90">
         <f t="shared" si="10"/>
-        <v>335160000</v>
+        <v>215160000</v>
       </c>
       <c r="L32" s="90">
         <f t="shared" si="10"/>
-        <v>372400000</v>
+        <v>240525000</v>
       </c>
       <c r="M32" s="90">
         <f t="shared" si="10"/>
-        <v>372400000</v>
+        <v>253650000</v>
       </c>
     </row>
   </sheetData>
@@ -12242,49 +12242,49 @@
       <c r="B37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="D37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="E37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="F37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="G37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="H37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="I37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="J37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="K37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="L37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
-      </c>
-      <c r="M37" s="144">
-        <f>'Headcount Assumptions'!$F$11</f>
-        <v>5232.5</v>
+      <c r="C37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="D37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="E37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="F37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="G37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="H37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="I37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="J37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="K37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="L37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
+      </c>
+      <c r="M37" s="55">
+        <f>'Headcount Assumptions'!$C$43+'Headcount Assumptions'!$C$44</f>
+        <v>5244</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -12481,47 +12481,47 @@
       </c>
       <c r="C41" s="147">
         <f t="shared" ref="C41:M41" si="16">SUM(C37:C40)</f>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="D41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="E41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="F41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="G41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="H41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="I41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="J41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="K41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="L41" s="147">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="M41" s="148">
         <f t="shared" si="16"/>
-        <v>19732.5</v>
+        <v>19744</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -12563,27 +12563,27 @@
       </c>
       <c r="H42" s="150">
         <f t="shared" si="17"/>
-        <v>9767587.5</v>
+        <v>9773280</v>
       </c>
       <c r="I42" s="150">
         <f t="shared" si="17"/>
-        <v>19831162.5</v>
+        <v>19842720</v>
       </c>
       <c r="J42" s="150">
         <f t="shared" si="17"/>
-        <v>39366337.5</v>
+        <v>39389280</v>
       </c>
       <c r="K42" s="150">
         <f t="shared" si="17"/>
-        <v>49429912.5</v>
+        <v>49458720</v>
       </c>
       <c r="L42" s="150">
         <f t="shared" si="17"/>
-        <v>68965087.5</v>
+        <v>69005280</v>
       </c>
       <c r="M42" s="150">
         <f t="shared" si="17"/>
-        <v>79028662.5</v>
+        <v>79074720</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -12652,27 +12652,27 @@
       </c>
       <c r="H44" s="153">
         <f t="shared" si="18"/>
-        <v>14982412.5</v>
+        <v>14976720</v>
       </c>
       <c r="I44" s="153">
         <f t="shared" si="18"/>
-        <v>30418837.5</v>
+        <v>30407280</v>
       </c>
       <c r="J44" s="153">
         <f t="shared" si="18"/>
-        <v>60383662.5</v>
+        <v>60360720</v>
       </c>
       <c r="K44" s="153">
         <f t="shared" si="18"/>
-        <v>75820087.5</v>
+        <v>75791280</v>
       </c>
       <c r="L44" s="153">
         <f t="shared" si="18"/>
-        <v>105784912.5</v>
+        <v>105744720</v>
       </c>
       <c r="M44" s="153">
         <f t="shared" si="18"/>
-        <v>121221337.5</v>
+        <v>121175280</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -13613,27 +13613,27 @@
       </c>
       <c r="H64" s="165">
         <f t="shared" si="26"/>
-        <v>11782412.5</v>
+        <v>11776720</v>
       </c>
       <c r="I64" s="165">
         <f t="shared" si="26"/>
-        <v>27218837.5</v>
+        <v>27207280</v>
       </c>
       <c r="J64" s="165">
         <f t="shared" si="26"/>
-        <v>55583662.5</v>
+        <v>55560720</v>
       </c>
       <c r="K64" s="165">
         <f t="shared" si="26"/>
-        <v>71020087.5</v>
+        <v>70991280</v>
       </c>
       <c r="L64" s="165">
         <f t="shared" si="26"/>
-        <v>99384912.5</v>
+        <v>99344720</v>
       </c>
       <c r="M64" s="165">
         <f t="shared" si="26"/>
-        <v>114821337.5</v>
+        <v>114775280</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -13678,27 +13678,27 @@
       </c>
       <c r="H65" s="167">
         <f t="shared" si="27"/>
-        <v>23802.85354</v>
+        <v>23791.35354</v>
       </c>
       <c r="I65" s="167">
         <f t="shared" si="27"/>
-        <v>27083.4204</v>
+        <v>27071.9204</v>
       </c>
       <c r="J65" s="167">
         <f t="shared" si="27"/>
-        <v>27861.48496</v>
+        <v>27849.98496</v>
       </c>
       <c r="K65" s="167">
         <f t="shared" si="27"/>
-        <v>28351.33234</v>
+        <v>28339.83234</v>
       </c>
       <c r="L65" s="167">
         <f t="shared" si="27"/>
-        <v>28436.31259</v>
+        <v>28424.81259</v>
       </c>
       <c r="M65" s="167">
         <f t="shared" si="27"/>
-        <v>28669.4975</v>
+        <v>28657.9975</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -13997,27 +13997,27 @@
       </c>
       <c r="H72" s="165">
         <f t="shared" si="29"/>
-        <v>9307412.5</v>
+        <v>9301720</v>
       </c>
       <c r="I72" s="165">
         <f t="shared" si="29"/>
-        <v>24103068.27</v>
+        <v>24091510.77</v>
       </c>
       <c r="J72" s="165">
         <f t="shared" si="29"/>
-        <v>49485585.58</v>
+        <v>49462643.08</v>
       </c>
       <c r="K72" s="165">
         <f t="shared" si="29"/>
-        <v>66185472.12</v>
+        <v>66156664.62</v>
       </c>
       <c r="L72" s="165">
         <f t="shared" si="29"/>
-        <v>91567989.42</v>
+        <v>91527796.92</v>
       </c>
       <c r="M72" s="165">
         <f t="shared" si="29"/>
-        <v>108272876</v>
+        <v>108226818.5</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -14059,27 +14059,27 @@
       </c>
       <c r="H73" s="165">
         <f t="shared" si="30"/>
-        <v>-2692587.5</v>
+        <v>-2698280</v>
       </c>
       <c r="I73" s="165">
         <f t="shared" si="30"/>
-        <v>12103068.27</v>
+        <v>12091510.77</v>
       </c>
       <c r="J73" s="165">
         <f t="shared" si="30"/>
-        <v>31485585.58</v>
+        <v>31462643.08</v>
       </c>
       <c r="K73" s="165">
         <f t="shared" si="30"/>
-        <v>48185472.12</v>
+        <v>48156664.62</v>
       </c>
       <c r="L73" s="165">
         <f t="shared" si="30"/>
-        <v>67567989.42</v>
+        <v>67527796.92</v>
       </c>
       <c r="M73" s="165">
         <f t="shared" si="30"/>
-        <v>84272875.96</v>
+        <v>84226818.46</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -14148,27 +14148,27 @@
       </c>
       <c r="H75" s="171">
         <f t="shared" si="31"/>
-        <v>-65692587.5</v>
+        <v>-65698280</v>
       </c>
       <c r="I75" s="171">
         <f t="shared" si="31"/>
-        <v>24103068.27</v>
+        <v>24091510.77</v>
       </c>
       <c r="J75" s="171">
         <f t="shared" si="31"/>
-        <v>-25514414.42</v>
+        <v>-25537356.92</v>
       </c>
       <c r="K75" s="171">
         <f t="shared" si="31"/>
-        <v>66185472.12</v>
+        <v>66156664.62</v>
       </c>
       <c r="L75" s="171">
         <f t="shared" si="31"/>
-        <v>16567989.42</v>
+        <v>16527796.92</v>
       </c>
       <c r="M75" s="171">
         <f t="shared" si="31"/>
-        <v>108272876</v>
+        <v>108226818.5</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -14288,7 +14288,7 @@
       <c r="L79" s="2"/>
       <c r="M79" s="155">
         <f>(M64*17.5)+M78</f>
-        <v>2213373406</v>
+        <v>2212567400</v>
       </c>
     </row>
     <row r="80">
@@ -14317,27 +14317,27 @@
       </c>
       <c r="H80" s="155">
         <f t="shared" si="32"/>
-        <v>-65692587.5</v>
+        <v>-65698280</v>
       </c>
       <c r="I80" s="155">
         <f t="shared" si="32"/>
-        <v>24103068.27</v>
+        <v>24091510.77</v>
       </c>
       <c r="J80" s="155">
         <f t="shared" si="32"/>
-        <v>-25514414.42</v>
+        <v>-25537356.92</v>
       </c>
       <c r="K80" s="155">
         <f t="shared" si="32"/>
-        <v>66185472.12</v>
+        <v>66156664.62</v>
       </c>
       <c r="L80" s="155">
         <f t="shared" si="32"/>
-        <v>16567989.42</v>
+        <v>16527796.92</v>
       </c>
       <c r="M80" s="155">
         <f>M79</f>
-        <v>2213373406</v>
+        <v>2212567400</v>
       </c>
     </row>
     <row r="81">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="C81" s="172">
         <f>IRR(C80:M80)</f>
-        <v>0.5698539468</v>
+        <v>0.5697350709</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
